--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Croatian 2 HNL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,260 +653,530 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Rudes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>BSK Bijelo Brdo</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.38</v>
+        <v>1.32</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>2025-10-10</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Trinidad &amp; Tobago</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I4" t="n">
+        <v>980</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Curacao</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Jamaica</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
+      <c r="F5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>FC Helsingor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.08</v>
+        <v>1.69</v>
       </c>
       <c r="G3" t="n">
-        <v>2.26</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,260 +923,3095 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.01</v>
       </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="I4" t="n">
-        <v>980</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="U4" t="n">
         <v>1.01</v>
       </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Danish 2nd Division</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Skive</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Swedish Division 1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ariana FC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Angelholms</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Swedish Division 1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Husqvarna</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Skovde</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="X7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>San Martin de San Juan</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>330</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Swedish Division 1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Orebro Syrianska</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Enkopings SK</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15:15:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vitesse Arnhem</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Welsh Premiership</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Irish Division 1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UCD</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Athlone Town</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>960</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Irish Division 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kerry FC</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Wexford F.C</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X14" t="n">
+        <v>960</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>960</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Irish Division 1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Treaty United</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bray Wanderers</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Irish Division 1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Longford</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>960</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>960</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>960</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Irish Division 1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dundalk</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Finn Harps</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Irish Premier Division</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Shamrock Rovers</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Shelbourne</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Uruguayan Segunda Division</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Centro Atletico Fenix</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tacuarembo</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>960</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cucuta Deportivo</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2025-10-10</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Trinidad &amp; Tobago</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I24" t="n">
+        <v>980</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Curacao</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Jamaica</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="F25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G25" t="n">
         <v>4.6</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="H25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>2.78</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="O3" t="n">
         <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
         <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="H4" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="I4" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -970,25 +970,25 @@
         <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>1.09</v>
       </c>
       <c r="I5" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1114,16 +1114,16 @@
         <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,91 +1207,91 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.96</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.7</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1612,100 +1612,100 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="I9" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.03</v>
       </c>
-      <c r="N9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1714,10 +1714,10 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="10">
@@ -1759,7 +1759,7 @@
         <v>7.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>5.3</v>
@@ -1777,10 +1777,10 @@
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R10" t="n">
         <v>1.65</v>
@@ -1801,7 +1801,7 @@
         <v>2.8</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
         <v>40</v>
@@ -1813,19 +1813,19 @@
         <v>220</v>
       </c>
       <c r="AB10" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
         <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1837,7 +1837,7 @@
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
         <v>14.5</v>
@@ -1849,7 +1849,7 @@
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO10" t="n">
         <v>65</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G11" t="n">
         <v>2.88</v>
@@ -1891,7 +1891,7 @@
         <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
         <v>3.15</v>
@@ -1900,19 +1900,19 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q11" t="n">
         <v>2.66</v>
@@ -1921,10 +1921,10 @@
         <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
         <v>1.79</v>
@@ -1936,19 +1936,19 @@
         <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Y11" t="n">
         <v>9.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
         <v>7.6</v>
@@ -1957,25 +1957,25 @@
         <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="G12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
         <v>2.06</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>2.8</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Wexford F.C</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.43</v>
+        <v>2.76</v>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.09</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
-        <v>16</v>
+        <v>2.74</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>2.06</v>
+        <v>3.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>2.6</v>
+        <v>2.86</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U13" t="n">
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="V13" t="n">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="W13" t="n">
-        <v>2.8</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>960</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>960</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wexford F.C</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.76</v>
+        <v>1.87</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>2.06</v>
       </c>
       <c r="H14" t="n">
-        <v>2.42</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.74</v>
+        <v>5.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.94</v>
       </c>
       <c r="X14" t="n">
-        <v>960</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>960</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AB14" t="n">
-        <v>960</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>960</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>960</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO14" t="n">
         <v>110</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Longford</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2.48</v>
+        <v>1.45</v>
       </c>
       <c r="I15" t="n">
-        <v>2.78</v>
+        <v>1.59</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,88 +2446,88 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.56</v>
+        <v>2.7</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="16">
@@ -2548,109 +2548,109 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Longford</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
-        <v>9.800000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="H16" t="n">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>1.59</v>
+        <v>17.5</v>
       </c>
       <c r="J16" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
         <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>2.7</v>
+        <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>960</v>
+        <v>50</v>
       </c>
       <c r="Z16" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>38</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>960</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>960</v>
+        <v>60</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.27</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>1.34</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
-        <v>17.5</v>
+        <v>2.78</v>
       </c>
       <c r="J17" t="n">
-        <v>5.8</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>1.06</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>50</v>
       </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.7</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -2827,64 +2827,64 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G18" t="n">
         <v>2.16</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.5</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.54</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="R18" t="n">
         <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W18" t="n">
         <v>1.86</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
         <v>32</v>
@@ -2893,34 +2893,34 @@
         <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
         <v>70</v>
@@ -2929,7 +2929,7 @@
         <v>240</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -3016,37 +3016,37 @@
         <v>1.51</v>
       </c>
       <c r="X19" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
         <v>85</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>100</v>
@@ -3058,7 +3058,7 @@
         <v>50</v>
       </c>
       <c r="AL19" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
         <v>230</v>
@@ -3112,7 +3112,7 @@
         <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3130,7 +3130,7 @@
         <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
@@ -3142,7 +3142,7 @@
         <v>2.16</v>
       </c>
       <c r="U20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
         <v>1.69</v>
@@ -3235,7 +3235,7 @@
         <v>2.52</v>
       </c>
       <c r="G21" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
@@ -3244,22 +3244,22 @@
         <v>3.65</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
         <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="P21" t="n">
         <v>1.45</v>
@@ -3268,16 +3268,16 @@
         <v>2.84</v>
       </c>
       <c r="R21" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="S21" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="U21" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="V21" t="n">
         <v>1.38</v>
@@ -3286,40 +3286,40 @@
         <v>1.55</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z21" t="n">
         <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH21" t="n">
         <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
         <v>1000</v>
@@ -3328,10 +3328,10 @@
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN21" t="n">
         <v>1000</v>
@@ -3367,67 +3367,67 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="G22" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.96</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.74</v>
       </c>
       <c r="V22" t="n">
         <v>1.9</v>
       </c>
       <c r="W22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,7 +3436,7 @@
         <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
         <v>13</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.82</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>1.93</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>980</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L24" t="n">
         <v>1.01</v>
       </c>
-      <c r="K24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3758,261 +3758,1071 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.35</v>
+        <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>4.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2.08</v>
+        <v>1.4</v>
       </c>
       <c r="I25" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>3.3</v>
+        <v>2.12</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.02</v>
+        <v>1.16</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>US USL League One</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>One Knoxville SC</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Portland Hearts of Pine</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Curacao</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>General Caballero</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>US USL League One</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Charlotte Independence</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AV Alta FC</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K30" t="n">
+        <v>950</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>North Carolina FC</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Phoenix Rising FC</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Colombian Primera B</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>2025-10-10</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Barranquilla</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Real Cartagena</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="F32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L32" t="n">
         <v>1.01</v>
       </c>
-      <c r="K26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="M32" t="n">
         <v>1.01</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
+      <c r="N32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,16 +805,16 @@
         <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>6.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
@@ -853,7 +853,7 @@
         <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,19 +961,19 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O4" t="n">
         <v>1.04</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
         <v>1.73</v>
@@ -985,10 +985,10 @@
         <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1096,22 +1096,22 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>1.11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="W5" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1249,7 +1249,7 @@
         <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
         <v>2.16</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AO6" t="n">
         <v>42</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>4.3</v>
+        <v>1.47</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,37 +1366,37 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T7" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>2.56</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,22 +1420,22 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1522,7 +1522,7 @@
         <v>2.78</v>
       </c>
       <c r="U8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="V8" t="n">
         <v>1.17</v>
@@ -1546,7 +1546,7 @@
         <v>5.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
@@ -1618,106 +1618,106 @@
         <v>4.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="I9" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
         <v>1.26</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
         <v>28</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="n">
         <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL9" t="n">
         <v>65</v>
       </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>1.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
         <v>7.6</v>
@@ -1765,52 +1765,52 @@
         <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="Q10" t="n">
         <v>1.46</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="S10" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="T10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
         <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
@@ -1825,10 +1825,10 @@
         <v>80</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>21</v>
@@ -1837,7 +1837,7 @@
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AK10" t="n">
         <v>14.5</v>
@@ -1849,7 +1849,7 @@
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AO10" t="n">
         <v>65</v>
@@ -1900,13 +1900,13 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M11" t="n">
         <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O11" t="n">
         <v>1.52</v>
@@ -1921,7 +1921,7 @@
         <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
@@ -1936,40 +1936,40 @@
         <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AE11" t="n">
         <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
         <v>980</v>
@@ -1978,7 +1978,7 @@
         <v>980</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>220</v>
@@ -2023,7 +2023,7 @@
         <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>1.09</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
         <v>16</v>
@@ -2047,7 +2047,7 @@
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
         <v>1.75</v>
@@ -2305,7 +2305,7 @@
         <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2332,7 +2332,7 @@
         <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
         <v>1.23</v>
@@ -2425,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>1.45</v>
@@ -2449,10 +2449,10 @@
         <v>4.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
         <v>1.62</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="G16" t="n">
         <v>1.31</v>
@@ -2569,10 +2569,10 @@
         <v>17.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2587,7 +2587,7 @@
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
         <v>1.6</v>
@@ -2602,7 +2602,7 @@
         <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V16" t="n">
         <v>1.06</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>17.5</v>
@@ -2638,28 +2638,28 @@
         <v>9.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2695,7 +2695,7 @@
         <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
         <v>2.48</v>
@@ -2722,19 +2722,19 @@
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R17" t="n">
         <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
         <v>2.36</v>
@@ -2746,10 +2746,10 @@
         <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
         <v>24</v>
@@ -2758,7 +2758,7 @@
         <v>46</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
         <v>11</v>
@@ -2770,16 +2770,16 @@
         <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
         <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
         <v>50</v>
@@ -2791,10 +2791,10 @@
         <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>21</v>
@@ -2857,7 +2857,7 @@
         <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q18" t="n">
         <v>2.7</v>
@@ -2899,7 +2899,7 @@
         <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>90</v>
@@ -3103,10 +3103,10 @@
         <v>3.75</v>
       </c>
       <c r="H20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I20" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
@@ -3130,7 +3130,7 @@
         <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
@@ -3187,7 +3187,7 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>960</v>
       </c>
       <c r="AK20" t="n">
         <v>65</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
         <v>2.94</v>
@@ -3250,7 +3250,7 @@
         <v>3.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
@@ -3259,10 +3259,10 @@
         <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
         <v>2.84</v>
@@ -3280,19 +3280,19 @@
         <v>1.67</v>
       </c>
       <c r="V21" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y21" t="n">
         <v>9.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
         <v>75</v>
@@ -3316,7 +3316,7 @@
         <v>16.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
         <v>120</v>
@@ -3334,7 +3334,7 @@
         <v>290</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G22" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="I22" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,49 +3391,49 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="Q22" t="n">
         <v>1.89</v>
       </c>
       <c r="R22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
         <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W22" t="n">
         <v>1.23</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
         <v>10.5</v>
@@ -3448,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
         <v>1000</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="G23" t="n">
         <v>4.9</v>
@@ -3511,7 +3511,7 @@
         <v>1.93</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
@@ -3523,7 +3523,7 @@
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>3.95</v>
@@ -3544,16 +3544,16 @@
         <v>2.74</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
         <v>1.78</v>
       </c>
       <c r="W23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3574,7 +3574,7 @@
         <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3655,10 +3655,10 @@
         <v>3.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
         <v>2.28</v>
@@ -3673,10 +3673,10 @@
         <v>2.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T24" t="n">
         <v>2.22</v>
@@ -3688,7 +3688,7 @@
         <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
         <v>8.199999999999999</v>
@@ -3727,10 +3727,10 @@
         <v>110</v>
       </c>
       <c r="AJ24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
         <v>85</v>
@@ -3775,7 +3775,7 @@
         <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
         <v>1.4</v>
@@ -3784,7 +3784,7 @@
         <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
         <v>1000</v>
@@ -3799,19 +3799,19 @@
         <v>1.11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q25" t="n">
         <v>1.16</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="T25" t="n">
         <v>1.03</v>
@@ -3823,7 +3823,7 @@
         <v>1.72</v>
       </c>
       <c r="W25" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G26" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H26" t="n">
         <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
@@ -3934,40 +3934,40 @@
         <v>1.11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.02</v>
+        <v>1.48</v>
       </c>
       <c r="P26" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R26" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
         <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA26" t="n">
         <v>95</v>
@@ -4066,16 +4066,16 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O27" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P27" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
@@ -4177,76 +4177,76 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="I28" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J28" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N28" t="n">
         <v>3.1</v>
       </c>
-      <c r="K28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P28" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V28" t="n">
         <v>1.61</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
         <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB28" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
         <v>12.5</v>
@@ -4255,25 +4255,25 @@
         <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AG28" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
         <v>130</v>
@@ -4282,7 +4282,7 @@
         <v>980</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
@@ -4321,7 +4321,7 @@
         <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4345,7 +4345,7 @@
         <v>1.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R29" t="n">
         <v>1.2</v>
@@ -4357,10 +4357,10 @@
         <v>1.65</v>
       </c>
       <c r="U29" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V29" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
         <v>1.78</v>
@@ -4369,16 +4369,16 @@
         <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>11</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4471,13 +4471,13 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="O30" t="n">
         <v>1.15</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Q30" t="n">
         <v>1.15</v>
@@ -4489,10 +4489,10 @@
         <v>1.15</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V30" t="n">
         <v>1.01</v>
@@ -4594,7 +4594,7 @@
         <v>3.95</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>4.5</v>
@@ -4603,10 +4603,10 @@
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.28</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G32" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="I32" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="K32" t="n">
         <v>1000</v>
@@ -4741,35 +4741,35 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="R32" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S32" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="T32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.01</v>
       </c>
-      <c r="U32" t="n">
+      <c r="W32" t="n">
         <v>1.01</v>
       </c>
-      <c r="V32" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.12</v>
-      </c>
       <c r="X32" t="n">
         <v>1000</v>
       </c>
@@ -4822,6 +4822,141 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G33" t="n">
+        <v>980</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K33" t="n">
+        <v>980</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -688,13 +688,13 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
         <v>1.34</v>
       </c>
       <c r="O2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P2" t="n">
         <v>1.34</v>
@@ -805,97 +805,97 @@
         <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
         <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.88</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
         <v>1.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>1.89</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G4" t="n">
         <v>2.6</v>
@@ -949,34 +949,34 @@
         <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.04</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="T4" t="n">
         <v>1.03</v>
@@ -988,7 +988,7 @@
         <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11</v>
+        <v>2.06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.19</v>
+        <v>1.51</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,7 +1120,7 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
         <v>1.01</v>
@@ -1207,73 +1207,73 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I6" t="n">
         <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
         <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
@@ -1285,22 +1285,22 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,10 +1309,10 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>1.47</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>8</v>
@@ -1366,22 +1366,22 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
@@ -1390,10 +1390,10 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
         <v>2.9</v>
@@ -1498,7 +1498,7 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
         <v>2.08</v>
@@ -1507,7 +1507,7 @@
         <v>1.79</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q8" t="n">
         <v>3.45</v>
@@ -1516,70 +1516,70 @@
         <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="U8" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>6.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="AB8" t="n">
         <v>5.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="I9" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="J9" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R9" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
         <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="W9" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
         <v>16</v>
@@ -1678,16 +1678,16 @@
         <v>28</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
         <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>40</v>
@@ -1699,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1708,13 +1708,13 @@
         <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -1756,16 +1756,16 @@
         <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
         <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -1777,40 +1777,40 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S10" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="X10" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
         <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB10" t="n">
         <v>980</v>
@@ -1837,19 +1837,19 @@
         <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
         <v>14.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO10" t="n">
         <v>65</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G11" t="n">
         <v>2.88</v>
@@ -1891,7 +1891,7 @@
         <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>3.15</v>
@@ -1900,88 +1900,88 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="M11" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
         <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
         <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AG11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>980</v>
       </c>
-      <c r="AF11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>29</v>
-      </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
         <v>5.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="O12" t="n">
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
         <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
         <v>1.1</v>
       </c>
       <c r="W12" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
         <v>980</v>
@@ -2107,10 +2107,10 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G13" t="n">
         <v>3.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2182,16 +2182,16 @@
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
         <v>1.68</v>
@@ -2212,10 +2212,10 @@
         <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
         <v>980</v>
@@ -2227,10 +2227,10 @@
         <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
         <v>980</v>
@@ -2239,25 +2239,25 @@
         <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.92</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.9</v>
-      </c>
       <c r="U14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.89</v>
       </c>
-      <c r="V14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="I15" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.3</v>
+        <v>2.08</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2482,10 +2482,10 @@
         <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
         <v>980</v>
@@ -2494,10 +2494,10 @@
         <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>1000</v>
@@ -2509,7 +2509,7 @@
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,64 +2557,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="G16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="I16" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K16" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U16" t="n">
         <v>1.72</v>
       </c>
       <c r="V16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2623,34 +2623,34 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK16" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>50</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,109 +2692,109 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.98</v>
+        <v>2.54</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="I17" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>4.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK17" t="n">
         <v>24</v>
       </c>
-      <c r="AA17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AO17" t="n">
         <v>21</v>
@@ -2830,10 +2830,10 @@
         <v>2.1</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
         <v>4.8</v>
@@ -2842,37 +2842,37 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
         <v>2.62</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P18" t="n">
         <v>1.51</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R18" t="n">
         <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U18" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>1.26</v>
@@ -2881,19 +2881,19 @@
         <v>1.86</v>
       </c>
       <c r="X18" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
@@ -2902,10 +2902,10 @@
         <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2914,22 +2914,22 @@
         <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2974,13 +2974,13 @@
         <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="K19" t="n">
         <v>3.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
@@ -3019,22 +3019,22 @@
         <v>8.6</v>
       </c>
       <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
         <v>9.6</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
         <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AE19" t="n">
         <v>65</v>
@@ -3046,10 +3046,10 @@
         <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
         <v>60</v>
@@ -3058,10 +3058,10 @@
         <v>50</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
         <v>60</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
         <v>3.2</v>
@@ -3121,7 +3121,7 @@
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="O20" t="n">
         <v>1.53</v>
@@ -3130,79 +3130,79 @@
         <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S20" t="n">
         <v>5.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V20" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="W20" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG20" t="n">
         <v>24</v>
       </c>
-      <c r="AG20" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>960</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AO20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3232,88 +3232,88 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G21" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L21" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="R21" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="T21" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W21" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="n">
         <v>980</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>16.5</v>
       </c>
       <c r="AH21" t="n">
         <v>980</v>
@@ -3328,13 +3328,13 @@
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AN21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,28 +3367,28 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G22" t="n">
         <v>5.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
         <v>3</v>
@@ -3397,46 +3397,46 @@
         <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="R22" t="n">
         <v>1.31</v>
       </c>
       <c r="S22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T22" t="n">
         <v>1.83</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>13</v>
@@ -3448,7 +3448,7 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
         <v>1000</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="G23" t="n">
         <v>4.9</v>
       </c>
       <c r="H23" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="W23" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3574,7 +3574,7 @@
         <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3592,7 +3592,7 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
         <v>1000</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="G24" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>3.4</v>
@@ -3652,91 +3652,91 @@
         <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O24" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P24" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="R24" t="n">
         <v>1.14</v>
       </c>
       <c r="S24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U24" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V24" t="n">
         <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
         <v>7.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>980</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
         <v>110</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>85</v>
-      </c>
       <c r="AM24" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
@@ -3772,46 +3772,46 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>4.8</v>
       </c>
       <c r="G25" t="n">
         <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="I25" t="n">
-        <v>2.38</v>
+        <v>1.74</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="K25" t="n">
         <v>1000</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
         <v>1.11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>1.16</v>
+        <v>2.32</v>
       </c>
       <c r="T25" t="n">
         <v>1.03</v>
@@ -3820,10 +3820,10 @@
         <v>1.03</v>
       </c>
       <c r="V25" t="n">
-        <v>1.72</v>
+        <v>2.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G26" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H26" t="n">
         <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>1.11</v>
+        <v>2.38</v>
       </c>
       <c r="O26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
         <v>1.56</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA26" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
         <v>50</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AO26" t="n">
         <v>85</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4063,7 +4063,7 @@
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
         <v>1.32</v>
@@ -4183,106 +4183,106 @@
         <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
         <v>2.64</v>
       </c>
       <c r="J28" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="U28" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="V28" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W28" t="n">
         <v>1.38</v>
       </c>
       <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AC28" t="n">
         <v>980</v>
       </c>
-      <c r="AB28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD28" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
         <v>15.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK28" t="n">
         <v>55</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>44</v>
-      </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN28" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AO28" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -4312,109 +4312,109 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G29" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.64</v>
+        <v>2.88</v>
       </c>
       <c r="O29" t="n">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="P29" t="n">
         <v>1.64</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R29" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="U29" t="n">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF29" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y29" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD29" t="n">
+      <c r="AG29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>26</v>
       </c>
-      <c r="AE29" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>30</v>
-      </c>
       <c r="AI29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK29" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4582,49 +4582,49 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I31" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="n">
         <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O31" t="n">
         <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T31" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="n">
         <v>2.16</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="G32" t="n">
         <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="I32" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="J32" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="O32" t="n">
         <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
         <v>1.14</v>
       </c>
       <c r="S32" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="T32" t="n">
         <v>1.03</v>
@@ -4765,7 +4765,7 @@
         <v>1.03</v>
       </c>
       <c r="V32" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="W32" t="n">
         <v>1.01</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="G33" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="H33" t="n">
         <v>1.81</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="J33" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>980</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.44</v>
@@ -4876,13 +4876,13 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="O33" t="n">
         <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q33" t="n">
         <v>1.34</v>
@@ -4894,16 +4894,16 @@
         <v>2.02</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Croatian 2 HNL</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rudes</t>
+          <t>FC Osaka</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BSK Bijelo Brdo</t>
+          <t>FC Ryukyu</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>1.94</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>980</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.02</v>
       </c>
-      <c r="K2" t="n">
-        <v>950</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.34</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Croatian 2 HNL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,114 +788,114 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fremad Amager</t>
+          <t>Rudes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Helsingor</t>
+          <t>BSK Bijelo Brdo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.88</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.32</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>1.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,118 +928,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>FC Helsingor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="S4" t="n">
-        <v>1.34</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1063,55 +1063,55 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>2.28</v>
+        <v>1.72</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,73 +1198,73 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ariana FC</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Angelholms</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.92</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.87</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>2.92</v>
+        <v>2.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,31 +1273,31 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Husqvarna</t>
+          <t>Ariana FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Skovde</t>
+          <t>Angelholms</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,73 +1366,73 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.08</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>2.92</v>
       </c>
       <c r="T7" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,108 +1463,108 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Husqvarna</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Skovde</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08</v>
+        <v>1.44</v>
       </c>
       <c r="O8" t="n">
-        <v>1.79</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.45</v>
+        <v>1.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>7.6</v>
+        <v>2.28</v>
       </c>
       <c r="T8" t="n">
-        <v>2.8</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1573,7 +1573,7 @@
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Orebro Syrianska</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enkopings SK</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="G9" t="n">
-        <v>5.1</v>
+        <v>1.92</v>
       </c>
       <c r="H9" t="n">
-        <v>1.86</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W9" t="n">
         <v>2.08</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.24</v>
-      </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>6.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>5.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="AF9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Orebro Syrianska</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Enkopings SK</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>6.4</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>1.46</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.74</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="R10" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AA10" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.4</v>
+        <v>48</v>
       </c>
       <c r="AO10" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.74</v>
       </c>
-      <c r="G11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.54</v>
-      </c>
       <c r="Q11" t="n">
-        <v>2.68</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.2</v>
+        <v>1.71</v>
       </c>
       <c r="S11" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>2.86</v>
       </c>
       <c r="X11" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK11" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,78 +2003,78 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.44</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>1.64</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>2.96</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>5.8</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>1.92</v>
+        <v>2.54</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>2.66</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.03</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="W12" t="n">
-        <v>2.56</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
@@ -2116,10 +2116,10 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2143,67 +2143,67 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Wexford F.C</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.74</v>
+        <v>1.36</v>
       </c>
       <c r="G13" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.8</v>
+        <v>1.99</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="R13" t="n">
         <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>1.05</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>2.42</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2221,10 +2221,10 @@
         <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,118 +2278,118 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Wexford F.C</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>2.76</v>
       </c>
       <c r="G14" t="n">
-        <v>2.12</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>2.46</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>2.72</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.8</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.72</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>1.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,70 +2413,70 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Longford</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.5</v>
+        <v>1.78</v>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
-        <v>1.38</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>1.66</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="T15" t="n">
         <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>2.48</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2506,7 +2506,7 @@
         <v>980</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Longford</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>980</v>
       </c>
       <c r="H16" t="n">
-        <v>13.5</v>
+        <v>1.09</v>
       </c>
       <c r="I16" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="J16" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.23</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P16" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
         <v>1.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.58</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
-        <v>2.36</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="U16" t="n">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.05</v>
+        <v>2.52</v>
       </c>
       <c r="W16" t="n">
-        <v>3.55</v>
+        <v>1.12</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>65</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="17">
@@ -2683,109 +2683,109 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>1.19</v>
       </c>
       <c r="G17" t="n">
-        <v>2.54</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>1.11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="R17" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
       <c r="U17" t="n">
-        <v>2.44</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>3.55</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,16 +2794,16 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="G18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P18" t="n">
         <v>2.28</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.52</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S18" t="n">
-        <v>5.3</v>
+        <v>1.05</v>
       </c>
       <c r="T18" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>2.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
         <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
         <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Centro Atletico Fenix</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tacuarembo</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N19" t="n">
         <v>2.54</v>
       </c>
-      <c r="G19" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.26</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P19" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.4</v>
+        <v>2.76</v>
       </c>
       <c r="R19" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="T19" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.51</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y19" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF19" t="n">
         <v>11</v>
       </c>
-      <c r="Z19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>17</v>
-      </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>28</v>
       </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>60</v>
-      </c>
       <c r="AK19" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Centro Atletico Fenix</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Tacuarembo</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
         <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>980</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.66</v>
+        <v>1.37</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="S20" t="n">
-        <v>5.4</v>
+        <v>2.32</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.56</v>
+        <v>3.9</v>
       </c>
       <c r="G21" t="n">
-        <v>2.86</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="O21" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T21" t="n">
         <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="V21" t="n">
-        <v>1.38</v>
+        <v>1.76</v>
       </c>
       <c r="W21" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH21" t="n">
         <v>26</v>
       </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>980</v>
-      </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM21" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,120 +3353,120 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.94</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.46</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.83</v>
+        <v>2.24</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.71</v>
       </c>
       <c r="V22" t="n">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="W22" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,78 +3488,78 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="I23" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="T23" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="W23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
         <v>1000</v>
@@ -3571,10 +3571,10 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,78 +3623,78 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>5.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>1.82</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>1.97</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2.26</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.66</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.96</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>6.4</v>
+        <v>2.68</v>
       </c>
       <c r="T24" t="n">
-        <v>2.26</v>
+        <v>1.03</v>
       </c>
       <c r="U24" t="n">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="V24" t="n">
-        <v>1.42</v>
+        <v>2.02</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="X24" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3703,13 +3703,13 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -3718,13 +3718,13 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
@@ -3733,10 +3733,10 @@
         <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,120 +3758,120 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.8</v>
+        <v>2.64</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="H25" t="n">
-        <v>1.42</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.74</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="N25" t="n">
-        <v>1.11</v>
+        <v>2.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.18</v>
+        <v>3.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="S25" t="n">
-        <v>2.32</v>
+        <v>6.8</v>
       </c>
       <c r="T25" t="n">
-        <v>1.03</v>
+        <v>2.34</v>
       </c>
       <c r="U25" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>2.34</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.06</v>
+        <v>1.55</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK25" t="n">
         <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,109 +3898,109 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.48</v>
+        <v>4.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.78</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>1.54</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>1.87</v>
       </c>
       <c r="J26" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>9.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>2.38</v>
+        <v>1.11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>1.17</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S26" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>1.38</v>
+        <v>2.14</v>
       </c>
       <c r="W26" t="n">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="X26" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4009,16 +4009,16 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,60 +4028,60 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>One Knoxville SC</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Portland Hearts of Pine</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.02</v>
+        <v>1.45</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
         <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>1.65</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="P27" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S27" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
         <v>1.03</v>
@@ -4090,16 +4090,16 @@
         <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,13 +4108,13 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4123,10 +4123,10 @@
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Portland Hearts of Pine</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="I28" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L28" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>2.86</v>
+        <v>1.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="P28" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>1.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="U28" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="V28" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
         <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.06</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>2.34</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.6</v>
+        <v>2.58</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R29" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG29" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ29" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AM29" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,73 +4438,73 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Charlotte Independence</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AV Alta FC</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H30" t="n">
-        <v>1.02</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="T30" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="V30" t="n">
         <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,13 +4513,13 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
@@ -4528,10 +4528,10 @@
         <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>North Carolina FC</t>
+          <t>Charlotte Independence</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Phoenix Rising FC</t>
+          <t>AV Alta FC</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="G31" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K31" t="n">
         <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3.8</v>
+        <v>2.04</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.81</v>
+        <v>1.19</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>3.05</v>
+        <v>1.21</v>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="U31" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,72 +4703,72 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>North Carolina FC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Phoenix Rising FC</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.55</v>
+        <v>2.14</v>
       </c>
       <c r="G32" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H32" t="n">
-        <v>1.71</v>
+        <v>2.84</v>
       </c>
       <c r="I32" t="n">
+        <v>980</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U32" t="n">
         <v>2.16</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.03</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,60 +4838,60 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.93</v>
+        <v>3.6</v>
       </c>
       <c r="G33" t="n">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="I33" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.11</v>
+        <v>1.64</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S33" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T33" t="n">
         <v>1.03</v>
@@ -4900,10 +4900,10 @@
         <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="W33" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4957,6 +4957,141 @@
         <v>1000</v>
       </c>
       <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -658,31 +658,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Osaka</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Ryukyu</t>
+          <t>Slaven Belupo</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="O2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.28</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.87</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.01</v>
       </c>
-      <c r="T2" t="n">
+      <c r="W2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.06</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Croatian 2 HNL</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,21 +788,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rudes</t>
+          <t>Ruzomberok</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BSK Bijelo Brdo</t>
+          <t>Podbeskidzie B-B</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -814,37 +814,37 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.32</v>
+        <v>1.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.03</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,123 +923,123 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fremad Amager</t>
+          <t>Pogon Grodzisk Mazowiecki</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Helsingor</t>
+          <t>Widzew Lodz</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>1.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Japanese J League 3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,60 +1058,60 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>FC Osaka</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>FC Ryukyu</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.92</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.6</v>
-      </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>14.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.3</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.72</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>1.72</v>
+        <v>2.12</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,69 +1193,69 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.08</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>2.28</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
         <v>1.01</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Croatian 2 HNL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,111 +1328,111 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ariana FC</t>
+          <t>Rudes</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Angelholms</t>
+          <t>BSK Bijelo Brdo</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.3</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,17 +1463,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Husqvarna</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Skovde</t>
+          <t>Spartakos Kitiou FC</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1489,34 +1489,34 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>1.26</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,108 +1598,108 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Husqvarna</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Skovde</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>2.1</v>
+        <v>1.27</v>
       </c>
       <c r="O9" t="n">
-        <v>1.79</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.35</v>
+        <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>7.6</v>
+        <v>1.46</v>
       </c>
       <c r="T9" t="n">
-        <v>2.74</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -1708,7 +1708,7 @@
         <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Orebro Syrianska</t>
+          <t>Ariana FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enkopings SK</t>
+          <t>Angelholms</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.46</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.23</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>1.05</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH10" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>1.52</v>
+        <v>2.44</v>
       </c>
       <c r="H11" t="n">
-        <v>6.4</v>
+        <v>2.92</v>
       </c>
       <c r="I11" t="n">
-        <v>7.2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.03</v>
       </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>2.86</v>
+        <v>1.7</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,123 +2003,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>FC Helsingor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.74</v>
+        <v>1.83</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>1.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.96</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
         <v>3.25</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.54</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.66</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="V12" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC12" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7</v>
-      </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,60 +2138,60 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="T13" t="n">
         <v>1.03</v>
@@ -2200,16 +2200,16 @@
         <v>1.03</v>
       </c>
       <c r="V13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.01</v>
       </c>
-      <c r="W13" t="n">
-        <v>2.42</v>
-      </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,13 +2218,13 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2233,10 +2233,10 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,117 +2273,117 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wexford F.C</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.76</v>
+        <v>1.84</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
-        <v>2.46</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.72</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>2.14</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.81</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>1.05</v>
+        <v>8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.03</v>
+        <v>2.84</v>
       </c>
       <c r="U14" t="n">
-        <v>1.03</v>
+        <v>1.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD14" t="n">
         <v>980</v>
       </c>
-      <c r="Y14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC14" t="n">
+      <c r="AE14" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF14" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG14" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH14" t="n">
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,114 +2408,114 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Orebro Syrianska</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Enkopings SK</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>4.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>500</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>1.7</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.27</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>2.02</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.9</v>
       </c>
       <c r="W15" t="n">
-        <v>1.89</v>
+        <v>1.29</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL15" t="n">
         <v>1000</v>
@@ -2524,16 +2524,16 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Longford</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="G16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="X16" t="n">
         <v>980</v>
       </c>
-      <c r="H16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="Y16" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD16" t="n">
         <v>980</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="AE16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>980</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC16" t="n">
+      <c r="AK16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,105 +2678,105 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.19</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S17" t="n">
-        <v>1.05</v>
+        <v>5.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.03</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
-        <v>3.55</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2791,7 +2791,7 @@
         <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>2.72</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>2.28</v>
+        <v>1.69</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>2.44</v>
+        <v>1.86</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,75 +2948,75 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
         <v>4.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.54</v>
-      </c>
       <c r="O19" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="P19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S19" t="n">
-        <v>6</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>2.28</v>
+        <v>1.88</v>
       </c>
       <c r="U19" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>2.66</v>
       </c>
       <c r="X19" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
         <v>980</v>
@@ -3025,22 +3025,22 @@
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD19" t="n">
         <v>980</v>
       </c>
-      <c r="AC19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>23</v>
-      </c>
       <c r="AE19" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
@@ -3049,31 +3049,31 @@
         <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,81 +3083,81 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Centro Atletico Fenix</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tacuarembo</t>
+          <t>Wexford F.C</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="I20" t="n">
-        <v>980</v>
+        <v>2.74</v>
       </c>
       <c r="J20" t="n">
-        <v>2.56</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>1.37</v>
+        <v>3.85</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.97</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>1.68</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3166,22 +3166,22 @@
         <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
         <v>980</v>
       </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Longford</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="G21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J21" t="n">
         <v>4.1</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K21" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.62</v>
+        <v>1.54</v>
       </c>
       <c r="R21" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>5.4</v>
+        <v>2.36</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="W21" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="X21" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,120 +3353,120 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>1.19</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>1.31</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="L22" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>2.44</v>
+        <v>1.11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>1.03</v>
       </c>
       <c r="R22" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>1.05</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>1.03</v>
       </c>
       <c r="U22" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="V22" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>4.6</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>1.94</v>
+        <v>2.84</v>
       </c>
       <c r="I23" t="n">
-        <v>2.18</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="S23" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="T23" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="V23" t="n">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.2</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>5.1</v>
+        <v>2.16</v>
       </c>
       <c r="H24" t="n">
-        <v>1.82</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.97</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>2.58</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.02</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,123 +3758,123 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Centro Atletico Fenix</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Tacuarembo</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J25" t="n">
         <v>2.82</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>3.3</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="M25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.15</v>
       </c>
-      <c r="N25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S25" t="n">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="T25" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC25" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC25" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF25" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
         <v>55</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G26" t="n">
         <v>4.1</v>
       </c>
-      <c r="G26" t="n">
-        <v>1000</v>
-      </c>
       <c r="H26" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="I26" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="J26" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>9.4</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>1.11</v>
+        <v>2.68</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.17</v>
+        <v>2.62</v>
       </c>
       <c r="R26" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="V26" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="W26" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.45</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q27" t="n">
-        <v>1.51</v>
+        <v>2.92</v>
       </c>
       <c r="R27" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="V27" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="X27" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,78 +4163,78 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>One Knoxville SC</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Portland Hearts of Pine</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="G28" t="n">
-        <v>2.42</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="J28" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.02</v>
+        <v>1.85</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>1.05</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="U28" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4246,10 +4246,10 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="I29" t="n">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>2.68</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="W29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC29" t="n">
         <v>11</v>
       </c>
-      <c r="Y29" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD29" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.74</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.43</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>1.43</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="U30" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB30" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Charlotte Independence</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AV Alta FC</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.88</v>
+        <v>2.74</v>
       </c>
       <c r="G31" t="n">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="J31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.15</v>
       </c>
-      <c r="K31" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="O31" t="n">
-        <v>1.19</v>
+        <v>1.68</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.19</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>1.21</v>
+        <v>6.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.03</v>
+        <v>2.34</v>
       </c>
       <c r="U31" t="n">
-        <v>1.03</v>
+        <v>1.66</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>7.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>21</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,111 +4703,111 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>North Carolina FC</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Phoenix Rising FC</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.14</v>
+        <v>5.4</v>
       </c>
       <c r="G32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X32" t="n">
         <v>980</v>
       </c>
-      <c r="H32" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I32" t="n">
-        <v>980</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB32" t="n">
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF32" t="n">
         <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -4816,19 +4816,19 @@
         <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,114 +4838,114 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I33" t="n">
         <v>3.6</v>
       </c>
-      <c r="G33" t="n">
-        <v>9</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.14</v>
-      </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P33" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="R33" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="S33" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="T33" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="n">
-        <v>1.12</v>
+        <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4963,136 +4963,946 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>US USL League One</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>One Knoxville SC</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Portland Hearts of Pine</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>870</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>2025-10-10</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Curacao</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X35" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>General Caballero</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>US USL League One</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Charlotte Independence</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>AV Alta FC</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>US United Soccer League</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>North Carolina FC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phoenix Rising FC</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Panama</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="F40" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
         <v>3.75</v>
       </c>
-      <c r="K34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="O40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.98</v>
       </c>
-      <c r="R34" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1000</v>
+      <c r="V40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -667,43 +667,43 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O2" t="n">
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q2" t="n">
         <v>1.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.71</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -814,16 +814,16 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
         <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
         <v>1.11</v>
@@ -832,13 +832,13 @@
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
         <v>1.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
         <v>1.66</v>
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" t="n">
         <v>1.15</v>
@@ -979,16 +979,16 @@
         <v>1.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="G5" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>1.11</v>
@@ -1102,10 +1102,10 @@
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
         <v>980</v>
@@ -1228,25 +1228,25 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>2.02</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1345,7 +1345,7 @@
         <v>1.89</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
@@ -1354,13 +1354,13 @@
         <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
         <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1393,7 +1393,7 @@
         <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,16 +1480,16 @@
         <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H8" t="n">
         <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
         <v>950</v>
@@ -1498,7 +1498,7 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>1.3</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="H9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J9" t="n">
         <v>4.3</v>
       </c>
-      <c r="I9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>1.27</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>1.27</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
-        <v>1.46</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
         <v>3.6</v>
@@ -1762,10 +1762,10 @@
         <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1777,7 +1777,7 @@
         <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
         <v>1.86</v>
@@ -1786,10 +1786,10 @@
         <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
         <v>2.14</v>
@@ -1801,19 +1801,19 @@
         <v>1.65</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
         <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
@@ -1822,7 +1822,7 @@
         <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>16.5</v>
@@ -1834,25 +1834,25 @@
         <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
         <v>2.92</v>
@@ -1900,28 +1900,28 @@
         <v>7.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>1.11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q11" t="n">
         <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -1933,7 +1933,7 @@
         <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="G12" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2050,13 +2050,13 @@
         <v>1.91</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
         <v>1.35</v>
       </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T12" t="n">
         <v>1.83</v>
@@ -2065,10 +2065,10 @@
         <v>1.94</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="W12" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
         <v>12</v>
@@ -2176,22 +2176,22 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>2.28</v>
+        <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="T13" t="n">
         <v>1.03</v>
@@ -2200,10 +2200,10 @@
         <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2290,46 +2290,46 @@
         <v>1.84</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O14" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
         <v>1.35</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="R14" t="n">
         <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="U14" t="n">
         <v>1.46</v>
@@ -2341,58 +2341,58 @@
         <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB14" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
         <v>240</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="n">
         <v>300</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15">
@@ -2422,91 +2422,91 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="G15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>1.47</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.84</v>
+        <v>2.26</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
       <c r="AE15" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG15" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
         <v>34</v>
@@ -2515,16 +2515,16 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H16" t="n">
         <v>6.4</v>
@@ -2569,40 +2569,40 @@
         <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R16" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="S16" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
         <v>1.16</v>
@@ -2611,43 +2611,43 @@
         <v>2.92</v>
       </c>
       <c r="X16" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y16" t="n">
         <v>980</v>
       </c>
-      <c r="Y16" t="n">
-        <v>38</v>
-      </c>
       <c r="Z16" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
         <v>190</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
         <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>13.5</v>
@@ -2656,10 +2656,10 @@
         <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO16" t="n">
         <v>65</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="I17" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.1</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M17" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P17" t="n">
         <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S17" t="n">
         <v>5.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Z17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2827,109 +2827,109 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="O18" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.25</v>
+        <v>1.78</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.86</v>
+        <v>1.03</v>
       </c>
       <c r="V18" t="n">
         <v>1.27</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
         <v>6.6</v>
       </c>
       <c r="I19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2986,34 +2986,34 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O19" t="n">
         <v>1.23</v>
       </c>
       <c r="P19" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="S19" t="n">
         <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W19" t="n">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
@@ -3040,10 +3040,10 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
         <v>980</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G20" t="n">
         <v>2.9</v>
@@ -3106,43 +3106,43 @@
         <v>2.48</v>
       </c>
       <c r="I20" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
         <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
         <v>1.49</v>
@@ -3151,22 +3151,22 @@
         <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
         <v>14.5</v>
@@ -3178,7 +3178,7 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
         <v>9.4</v>
@@ -3241,13 +3241,13 @@
         <v>1.46</v>
       </c>
       <c r="I21" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>1.26</v>
@@ -3259,7 +3259,7 @@
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
         <v>2.08</v>
@@ -3280,7 +3280,7 @@
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="W21" t="n">
         <v>1.12</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="G22" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>13.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="J22" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="K22" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3394,7 +3394,7 @@
         <v>1.11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P22" t="n">
         <v>2.26</v>
@@ -3412,7 +3412,7 @@
         <v>1.03</v>
       </c>
       <c r="U22" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="V22" t="n">
         <v>1.01</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G23" t="n">
         <v>2.56</v>
@@ -3511,7 +3511,7 @@
         <v>2.84</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
         <v>3.65</v>
@@ -3532,82 +3532,82 @@
         <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="T23" t="n">
         <v>1.56</v>
       </c>
       <c r="U23" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W23" t="n">
         <v>1.64</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK23" t="n">
         <v>28</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>27</v>
       </c>
       <c r="AL23" t="n">
         <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
         <v>2.16</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.05</v>
@@ -3658,22 +3658,22 @@
         <v>1.65</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
         <v>2.58</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P24" t="n">
         <v>1.49</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="R24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
         <v>6</v>
@@ -3685,7 +3685,7 @@
         <v>1.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W24" t="n">
         <v>1.86</v>
@@ -3700,7 +3700,7 @@
         <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB24" t="n">
         <v>6.8</v>
@@ -3712,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="AE24" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
@@ -3721,10 +3721,10 @@
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AI24" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ24" t="n">
         <v>28</v>
@@ -3736,13 +3736,13 @@
         <v>75</v>
       </c>
       <c r="AM24" t="n">
-        <v>260</v>
+        <v>980</v>
       </c>
       <c r="AN24" t="n">
         <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,100 +3772,100 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>2.74</v>
+        <v>980</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>1.09</v>
       </c>
       <c r="I25" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="J25" t="n">
-        <v>2.82</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>980</v>
       </c>
       <c r="L25" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>2.26</v>
+        <v>1.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S25" t="n">
         <v>2.62</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.45</v>
-      </c>
       <c r="T25" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="U25" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="V25" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3949,7 +3949,7 @@
         <v>5.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U26" t="n">
         <v>1.76</v>
@@ -3961,7 +3961,7 @@
         <v>1.32</v>
       </c>
       <c r="X26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y26" t="n">
         <v>7.4</v>
@@ -3970,7 +3970,7 @@
         <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3982,16 +3982,16 @@
         <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AI26" t="n">
         <v>65</v>
@@ -4012,7 +4012,7 @@
         <v>100</v>
       </c>
       <c r="AO26" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="G27" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H27" t="n">
         <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
         <v>2.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L27" t="n">
         <v>1.68</v>
@@ -4072,7 +4072,7 @@
         <v>1.62</v>
       </c>
       <c r="P27" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
         <v>2.92</v>
@@ -4117,7 +4117,7 @@
         <v>16.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="n">
         <v>15.5</v>
@@ -4147,7 +4147,7 @@
         <v>55</v>
       </c>
       <c r="AO27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4177,76 +4177,76 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.4</v>
       </c>
-      <c r="G28" t="n">
-        <v>5</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="K28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.94</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.85</v>
-      </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.96</v>
       </c>
-      <c r="V28" t="n">
-        <v>1.74</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X28" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
         <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD28" t="n">
         <v>13</v>
@@ -4258,7 +4258,7 @@
         <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4315,19 +4315,19 @@
         <v>4.2</v>
       </c>
       <c r="G29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J29" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.29</v>
@@ -4357,10 +4357,10 @@
         <v>1.7</v>
       </c>
       <c r="U29" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W29" t="n">
         <v>1.25</v>
@@ -4372,28 +4372,28 @@
         <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
@@ -4417,7 +4417,7 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="G30" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
         <v>1.46</v>
@@ -4477,43 +4477,43 @@
         <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R30" t="n">
         <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T30" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U30" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
         <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA30" t="n">
         <v>65</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
         <v>9</v>
@@ -4522,34 +4522,34 @@
         <v>16.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="n">
         <v>40</v>
       </c>
       <c r="AK30" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
         <v>48</v>
@@ -4585,7 +4585,7 @@
         <v>2.74</v>
       </c>
       <c r="G31" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
@@ -4597,7 +4597,7 @@
         <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.67</v>
@@ -4615,13 +4615,13 @@
         <v>1.42</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R31" t="n">
         <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T31" t="n">
         <v>2.34</v>
@@ -4648,13 +4648,13 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC31" t="n">
         <v>7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
@@ -4672,10 +4672,10 @@
         <v>120</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AL31" t="n">
         <v>110</v>
@@ -4720,25 +4720,25 @@
         <v>5.4</v>
       </c>
       <c r="G32" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I32" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J32" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K32" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>5.3</v>
@@ -4747,28 +4747,28 @@
         <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q32" t="n">
         <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
         <v>2.42</v>
       </c>
       <c r="T32" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U32" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V32" t="n">
         <v>2.52</v>
       </c>
       <c r="W32" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X32" t="n">
         <v>980</v>
@@ -4795,7 +4795,7 @@
         <v>16</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG32" t="n">
         <v>24</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="G33" t="n">
         <v>2.6</v>
@@ -4861,43 +4861,43 @@
         <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="O33" t="n">
         <v>1.51</v>
       </c>
       <c r="P33" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="S33" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T33" t="n">
         <v>2.04</v>
       </c>
       <c r="U33" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V33" t="n">
         <v>1.4</v>
@@ -4906,46 +4906,46 @@
         <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Z33" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AE33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -5011,7 +5011,7 @@
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="O34" t="n">
         <v>1.36</v>
@@ -5125,19 +5125,19 @@
         <v>3.35</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="I35" t="n">
         <v>2.54</v>
       </c>
       <c r="J35" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L35" t="n">
         <v>1.54</v>
@@ -5146,7 +5146,7 @@
         <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O35" t="n">
         <v>1.45</v>
@@ -5167,19 +5167,19 @@
         <v>1.98</v>
       </c>
       <c r="U35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V35" t="n">
         <v>1.66</v>
       </c>
       <c r="W35" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y35" t="n">
         <v>11</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>10.5</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5194,16 +5194,16 @@
         <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH35" t="n">
         <v>980</v>
@@ -5212,10 +5212,10 @@
         <v>60</v>
       </c>
       <c r="AJ35" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5224,7 +5224,7 @@
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5260,58 +5260,58 @@
         <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J36" t="n">
         <v>3.1</v>
       </c>
       <c r="K36" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O36" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P36" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S36" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U36" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X36" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
         <v>15</v>
@@ -5323,19 +5323,19 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
         <v>9</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE36" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
         <v>13</v>
@@ -5344,7 +5344,7 @@
         <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="n">
         <v>36</v>
@@ -5359,7 +5359,7 @@
         <v>180</v>
       </c>
       <c r="AN36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,34 +5392,34 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="G37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
         <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>3.45</v>
+        <v>1.24</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P37" t="n">
         <v>2.12</v>
@@ -5440,7 +5440,7 @@
         <v>2.34</v>
       </c>
       <c r="V37" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W37" t="n">
         <v>1.89</v>
@@ -5461,22 +5461,22 @@
         <v>13.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE37" t="n">
         <v>48</v>
       </c>
       <c r="AF37" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI37" t="n">
         <v>55</v>
@@ -5485,7 +5485,7 @@
         <v>29</v>
       </c>
       <c r="AK37" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL37" t="n">
         <v>36</v>
@@ -5533,13 +5533,13 @@
         <v>2.38</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I38" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
@@ -5575,16 +5575,16 @@
         <v>2.16</v>
       </c>
       <c r="V38" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W38" t="n">
         <v>1.72</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5596,16 +5596,16 @@
         <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG38" t="n">
         <v>1000</v>
@@ -5680,13 +5680,13 @@
         <v>7.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.64</v>
+        <v>2.3</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
@@ -5698,10 +5698,10 @@
         <v>1.89</v>
       </c>
       <c r="R39" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>1.89</v>
+        <v>2.6</v>
       </c>
       <c r="T39" t="n">
         <v>1.03</v>
@@ -5800,61 +5800,61 @@
         <v>4.9</v>
       </c>
       <c r="G40" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="I40" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J40" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K40" t="n">
         <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P40" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R40" t="n">
         <v>1.36</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="T40" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U40" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V40" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W40" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X40" t="n">
         <v>15.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
         <v>10.5</v>
@@ -5863,13 +5863,13 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
         <v>10.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE40" t="n">
         <v>23</v>
@@ -5884,7 +5884,7 @@
         <v>25</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="n">
         <v>140</v>
@@ -5893,7 +5893,7 @@
         <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM40" t="n">
         <v>150</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.25</v>
+        <v>4.7</v>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>7.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.06</v>
+        <v>1.52</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>1.71</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
-        <v>36</v>
+        <v>5.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.32</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>1.32</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>1.71</v>
+        <v>2.34</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.65</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.86</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -832,82 +832,82 @@
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>2.14</v>
       </c>
       <c r="J4" t="n">
-        <v>1.25</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>36</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="S4" t="n">
-        <v>1.15</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>2.44</v>
       </c>
       <c r="V4" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="W4" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,43 +1006,43 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="H5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.31</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
         <v>1.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,64 +1255,64 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
@@ -1342,43 +1342,43 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.46</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.36</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
         <v>3.45</v>
@@ -1387,16 +1387,16 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>610</v>
+        <v>970</v>
       </c>
       <c r="H8" t="n">
         <v>1.04</v>
@@ -1510,13 +1510,13 @@
         <v>1.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.26</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
         <v>1.03</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H9" t="n">
         <v>4.6</v>
@@ -1624,100 +1624,100 @@
         <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Y9" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>7.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
         <v>2.52</v>
@@ -1768,25 +1768,25 @@
         <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>1.93</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>2.88</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
@@ -1837,22 +1837,22 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN10" t="n">
         <v>19.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1873,55 +1873,55 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H11" t="n">
-        <v>2.92</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>1.11</v>
       </c>
       <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.25</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.39</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -1930,10 +1930,10 @@
         <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2008,109 +2008,109 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fremad Amager</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Helsingor</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
-        <v>1.88</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>1.11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>2.96</v>
+        <v>1.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.03</v>
       </c>
       <c r="U12" t="n">
-        <v>1.94</v>
+        <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="W12" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2143,118 +2143,118 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>FC Helsingor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.45</v>
+        <v>1.79</v>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>1.11</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>2.34</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W13" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,37 +2287,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N14" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="P14" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q14" t="n">
         <v>3.55</v>
@@ -2329,13 +2329,13 @@
         <v>8.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="U14" t="n">
         <v>1.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
         <v>2.08</v>
@@ -2344,55 +2344,55 @@
         <v>6.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AE14" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AG14" t="n">
         <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="n">
         <v>300</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AM14" t="n">
-        <v>660</v>
+        <v>530</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
-        <v>640</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2446,13 +2446,13 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>1.47</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
         <v>1.59</v>
@@ -2464,55 +2464,55 @@
         <v>2.26</v>
       </c>
       <c r="T15" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
       </c>
       <c r="Y15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="n">
         <v>15</v>
       </c>
-      <c r="Z15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AK15" t="n">
         <v>60</v>
@@ -2521,13 +2521,13 @@
         <v>44</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>5.2</v>
@@ -2575,7 +2575,7 @@
         <v>5.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2584,58 +2584,58 @@
         <v>6.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q16" t="n">
         <v>1.46</v>
       </c>
       <c r="R16" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="T16" t="n">
         <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="X16" t="n">
         <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="Z16" t="n">
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
@@ -2644,10 +2644,10 @@
         <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>13.5</v>
@@ -2659,16 +2659,16 @@
         <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.12</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,109 +2953,109 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.41</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.24</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.56</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>2.66</v>
+        <v>4.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>2.86</v>
+        <v>1.87</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3088,73 +3088,73 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Wexford F.C</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.82</v>
+        <v>1.42</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.48</v>
+        <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>2.64</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
-        <v>1.49</v>
+        <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,13 +3163,13 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3178,7 +3178,7 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
@@ -3187,7 +3187,7 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3223,76 +3223,76 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Longford</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Wexford F.C</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>9.4</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.46</v>
+        <v>2.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.58</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>2.36</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>2.56</v>
+        <v>1.47</v>
       </c>
       <c r="W21" t="n">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
@@ -3301,10 +3301,10 @@
         <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>980</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.24</v>
+        <v>2.34</v>
       </c>
       <c r="G22" t="n">
-        <v>1.29</v>
+        <v>2.44</v>
       </c>
       <c r="H22" t="n">
-        <v>13.5</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
-        <v>19.5</v>
+        <v>3.15</v>
       </c>
       <c r="J22" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,88 +3391,88 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>1.11</v>
+        <v>5.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>1.05</v>
+        <v>2.44</v>
       </c>
       <c r="T22" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Longford</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>8.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.84</v>
+        <v>1.48</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>1.54</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,94 +3526,94 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T23" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="U23" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.47</v>
+        <v>2.84</v>
       </c>
       <c r="W23" t="n">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB23" t="n">
         <v>980</v>
       </c>
-      <c r="AB23" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC23" t="n">
-        <v>9.4</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
         <v>980</v>
       </c>
-      <c r="AF23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
         <v>15</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>980</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,123 +3623,123 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.1</v>
+        <v>1.23</v>
       </c>
       <c r="G24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H24" t="n">
+        <v>14</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T24" t="n">
         <v>2.16</v>
       </c>
-      <c r="H24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S24" t="n">
-        <v>6</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V24" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="W24" t="n">
-        <v>1.86</v>
+        <v>3.95</v>
       </c>
       <c r="X24" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>11</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI24" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>9.6</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>4.4</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,118 +3763,118 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Centro Atletico Fenix</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tacuarembo</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>980</v>
+        <v>2.14</v>
       </c>
       <c r="H25" t="n">
-        <v>1.09</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>980</v>
+        <v>3.15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N25" t="n">
-        <v>1.25</v>
+        <v>2.58</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="S25" t="n">
-        <v>2.62</v>
+        <v>6</v>
       </c>
       <c r="T25" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="U25" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="X25" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF25" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Centro Atletico Fenix</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Tacuarembo</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.85</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="H26" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N26" t="n">
         <v>2.22</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.68</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.62</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="S26" t="n">
-        <v>5.4</v>
+        <v>3.45</v>
       </c>
       <c r="T26" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="V26" t="n">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="X26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y26" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y26" t="n">
-        <v>7.4</v>
-      </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
         <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL26" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
       </c>
       <c r="G27" t="n">
-        <v>2.84</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>2.32</v>
       </c>
       <c r="J27" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="O27" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="R27" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="U27" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="W27" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="X27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y27" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9</v>
-      </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="n">
         <v>65</v>
       </c>
-      <c r="AB27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>100</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="n">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="AL27" t="n">
-        <v>85</v>
+        <v>370</v>
       </c>
       <c r="AM27" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.75</v>
+        <v>2.68</v>
       </c>
       <c r="G28" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="H28" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="K28" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>2.52</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="P28" t="n">
-        <v>1.84</v>
+        <v>1.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.94</v>
+        <v>2.82</v>
       </c>
       <c r="R28" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="S28" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="U28" t="n">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="V28" t="n">
-        <v>1.96</v>
+        <v>1.41</v>
       </c>
       <c r="W28" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG28" t="n">
         <v>14</v>
       </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>22</v>
-      </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,102 +4298,102 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="I29" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.76</v>
+        <v>1.96</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="U29" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="W29" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AF29" t="n">
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
         <v>1000</v>
@@ -4417,13 +4417,13 @@
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.26</v>
+        <v>4.5</v>
       </c>
       <c r="G30" t="n">
-        <v>2.48</v>
+        <v>4.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>1.82</v>
       </c>
       <c r="I30" t="n">
-        <v>3.95</v>
+        <v>1.94</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="P30" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="S30" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="T30" t="n">
-        <v>1.86</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.34</v>
+        <v>2.06</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AE30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AI30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
         <v>55</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,123 +4568,123 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.74</v>
+        <v>2.24</v>
       </c>
       <c r="G31" t="n">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="L31" t="n">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="M31" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>2.34</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="R31" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S31" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="T31" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="U31" t="n">
-        <v>1.66</v>
+        <v>1.99</v>
       </c>
       <c r="V31" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="X31" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
         <v>20</v>
       </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>55</v>
-      </c>
       <c r="AI31" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AJ31" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="n">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AM31" t="n">
-        <v>320</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.4</v>
+        <v>2.76</v>
       </c>
       <c r="G32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S32" t="n">
+        <v>7</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB32" t="n">
         <v>7.2</v>
       </c>
-      <c r="H32" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X32" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA32" t="n">
+      <c r="AC32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF32" t="n">
         <v>16.5</v>
       </c>
-      <c r="AB32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF32" t="n">
+      <c r="AG32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>540</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK32" t="n">
         <v>55</v>
       </c>
-      <c r="AG32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,106 +4843,106 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P33" t="n">
         <v>2.42</v>
       </c>
-      <c r="G33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>1.59</v>
       </c>
       <c r="R33" t="n">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="S33" t="n">
-        <v>4.5</v>
+        <v>2.44</v>
       </c>
       <c r="T33" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="U33" t="n">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>2.52</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="X33" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y33" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB33" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AC33" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG33" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AH33" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK33" t="n">
         <v>1000</v>
@@ -4951,19 +4951,19 @@
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,78 +4973,78 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>One Knoxville SC</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Portland Hearts of Pine</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.79</v>
+        <v>2.28</v>
       </c>
       <c r="G34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2.36</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>870</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.87</v>
-      </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S34" t="n">
-        <v>1.87</v>
+        <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.03</v>
+        <v>1.56</v>
       </c>
       <c r="U34" t="n">
-        <v>1.03</v>
+        <v>1.51</v>
       </c>
       <c r="V34" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="W34" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
@@ -5053,13 +5053,13 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -5068,10 +5068,10 @@
         <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,111 +5108,111 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Portland Hearts of Pine</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.35</v>
+        <v>1.79</v>
       </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>2.36</v>
       </c>
       <c r="H35" t="n">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>2.54</v>
+        <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.35</v>
+        <v>7.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>2.98</v>
+        <v>1.65</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.34</v>
+        <v>1.87</v>
       </c>
       <c r="R35" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>4.4</v>
+        <v>1.87</v>
       </c>
       <c r="T35" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="U35" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="V35" t="n">
-        <v>1.66</v>
+        <v>1.23</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
         <v>1000</v>
@@ -5221,10 +5221,10 @@
         <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.04</v>
+        <v>3.35</v>
       </c>
       <c r="G36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2.3</v>
       </c>
-      <c r="H36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="R36" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.63</v>
       </c>
-      <c r="Q36" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.77</v>
+        <v>1.37</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC36" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
         <v>22</v>
       </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>15</v>
-      </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI36" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO36" t="n">
         <v>36</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Charlotte Independence</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AV Alta FC</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.87</v>
       </c>
-      <c r="G37" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.34</v>
-      </c>
       <c r="V37" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W37" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="X37" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y37" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC37" t="n">
         <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE37" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AI37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AO37" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>US United Soccer League</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>North Carolina FC</t>
+          <t>Charlotte Independence</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Phoenix Rising FC</t>
+          <t>AV Alta FC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="G38" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="H38" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="J38" t="n">
         <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="O38" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="R38" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="S38" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="U38" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="V38" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="W38" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="X38" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD38" t="n">
         <v>17</v>
       </c>
-      <c r="Z38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD38" t="n">
+      <c r="AE38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH38" t="n">
         <v>18</v>
       </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM38" t="n">
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,78 +5648,78 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>North Carolina FC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Phoenix Rising FC</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J39" t="n">
         <v>3.6</v>
       </c>
-      <c r="G39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K39" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="T39" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="U39" t="n">
-        <v>1.03</v>
+        <v>2.24</v>
       </c>
       <c r="V39" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
         <v>1000</v>
@@ -5728,13 +5728,13 @@
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
@@ -5743,7 +5743,7 @@
         <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5773,136 +5773,271 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>2025-10-10</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Panama</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="F41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.9</v>
       </c>
-      <c r="K40" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N40" t="n">
+      <c r="K41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S41" t="n">
         <v>3.7</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z40" t="n">
+      <c r="T41" t="n">
+        <v>2</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD41" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>12</v>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G2" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="I2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="S2" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.64</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.24</v>
@@ -832,82 +832,82 @@
         <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>2.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="T3" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="U3" t="n">
         <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
       </c>
       <c r="X3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="n">
         <v>36</v>
       </c>
-      <c r="Y3" t="n">
-        <v>30</v>
-      </c>
       <c r="Z3" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>17</v>
       </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18</v>
-      </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.14</v>
+        <v>1.84</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U4" t="n">
         <v>2.44</v>
       </c>
       <c r="V4" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
       <c r="AF4" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK4" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>65</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,85 +1072,85 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
         <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>2.44</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1159,22 +1159,22 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="H6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.55</v>
       </c>
-      <c r="I6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.11</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>2.14</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,64 +1255,64 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
         <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>27</v>
       </c>
       <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI6" t="n">
         <v>120</v>
       </c>
-      <c r="AF6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>260</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
         <v>46</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,37 +1342,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N7" t="n">
         <v>2.74</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.47</v>
       </c>
       <c r="P7" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
         <v>2.46</v>
@@ -1381,22 +1381,22 @@
         <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1432,7 +1432,7 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AK7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.04</v>
       </c>
-      <c r="G8" t="n">
-        <v>970</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I8" t="n">
-        <v>870</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K8" t="n">
-        <v>950</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
       <c r="N8" t="n">
-        <v>1.3</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>1.3</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="H9" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>5.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1642,16 +1642,16 @@
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T9" t="n">
         <v>1.62</v>
@@ -1660,10 +1660,10 @@
         <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="X9" t="n">
         <v>55</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>170</v>
@@ -1714,10 +1714,10 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,46 +1747,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G10" t="n">
         <v>2.52</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
         <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>1.93</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
@@ -1795,10 +1795,10 @@
         <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
         <v>16</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="G11" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>14.5</v>
+        <v>870</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>1.11</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -1930,10 +1930,10 @@
         <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="W11" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,46 +2017,46 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>1.11</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="T12" t="n">
         <v>1.03</v>
@@ -2065,10 +2065,10 @@
         <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2161,7 +2161,7 @@
         <v>4.8</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.6</v>
@@ -2170,31 +2170,31 @@
         <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
         <v>1.96</v>
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>9.4</v>
@@ -2236,25 +2236,25 @@
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK13" t="n">
         <v>20</v>
       </c>
       <c r="AL13" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
@@ -2302,73 +2302,73 @@
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="M14" t="n">
         <v>1.19</v>
       </c>
       <c r="N14" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="O14" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="P14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="R14" t="n">
         <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB14" t="n">
         <v>5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>70</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AF14" t="n">
         <v>8.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>48</v>
@@ -2383,13 +2383,13 @@
         <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>260</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
         <v>530</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,34 +2422,34 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="I15" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
         <v>2.38</v>
@@ -2461,34 +2461,34 @@
         <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="T15" t="n">
         <v>1.55</v>
       </c>
       <c r="U15" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
         <v>36</v>
       </c>
       <c r="AB15" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
@@ -2497,37 +2497,37 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
         <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
         <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G16" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H16" t="n">
         <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
         <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2587,16 +2587,16 @@
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R16" t="n">
         <v>1.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
         <v>1.64</v>
@@ -2605,10 +2605,10 @@
         <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W16" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="X16" t="n">
         <v>32</v>
@@ -2617,25 +2617,25 @@
         <v>42</v>
       </c>
       <c r="Z16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD16" t="n">
         <v>980</v>
       </c>
-      <c r="AA16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF16" t="n">
         <v>25</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>36</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
@@ -2644,10 +2644,10 @@
         <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>13.5</v>
@@ -2656,10 +2656,10 @@
         <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,64 +2827,64 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H18" t="n">
         <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="P18" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y18" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.6</v>
       </c>
       <c r="Z18" t="n">
         <v>17.5</v>
@@ -2893,7 +2893,7 @@
         <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
@@ -2908,13 +2908,13 @@
         <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
@@ -2923,16 +2923,16 @@
         <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2962,40 +2962,40 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
         <v>1.24</v>
@@ -3010,10 +3010,10 @@
         <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W19" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X19" t="n">
         <v>11</v>
@@ -3049,7 +3049,7 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
         <v>32</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,52 +3097,52 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H20" t="n">
         <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J20" t="n">
         <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="S20" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
@@ -3178,7 +3178,7 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,49 +3232,49 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U21" t="n">
         <v>2.2</v>
@@ -3283,7 +3283,7 @@
         <v>1.47</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
@@ -3301,7 +3301,7 @@
         <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD21" t="n">
         <v>980</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
         <v>2.44</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>3.8</v>
@@ -3385,28 +3385,28 @@
         <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
         <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="T22" t="n">
         <v>1.54</v>
@@ -3415,16 +3415,16 @@
         <v>2.52</v>
       </c>
       <c r="V22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X22" t="n">
         <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z22" t="n">
         <v>24</v>
@@ -3442,7 +3442,7 @@
         <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
         <v>19</v>
@@ -3460,16 +3460,16 @@
         <v>100</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO22" t="n">
         <v>19.5</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="G23" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I23" t="n">
         <v>1.54</v>
       </c>
       <c r="J23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="T23" t="n">
         <v>1.8</v>
       </c>
       <c r="U23" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="V23" t="n">
         <v>2.84</v>
       </c>
       <c r="W23" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,61 +3637,61 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G24" t="n">
         <v>1.26</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="J24" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K24" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="S24" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T24" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X24" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3703,10 +3703,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3715,19 +3715,19 @@
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK24" t="n">
         <v>15</v>
@@ -3739,7 +3739,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="H25" t="n">
         <v>4.7</v>
@@ -3796,43 +3796,43 @@
         <v>1.14</v>
       </c>
       <c r="N25" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="P25" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R25" t="n">
         <v>1.17</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="U25" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="X25" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
         <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
         <v>130</v>
@@ -3850,13 +3850,13 @@
         <v>95</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
         <v>130</v>
@@ -3868,16 +3868,16 @@
         <v>32</v>
       </c>
       <c r="AL25" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="n">
         <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26">
@@ -3913,7 +3913,7 @@
         <v>3.05</v>
       </c>
       <c r="H26" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
         <v>3.65</v>
@@ -3925,7 +3925,7 @@
         <v>3.15</v>
       </c>
       <c r="L26" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
         <v>1.15</v>
@@ -3967,7 +3967,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
@@ -3991,7 +3991,7 @@
         <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
@@ -4060,28 +4060,28 @@
         <v>3.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O27" t="n">
         <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T27" t="n">
         <v>2.16</v>
@@ -4090,64 +4090,64 @@
         <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X27" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
         <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AJ27" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AK27" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AL27" t="n">
         <v>370</v>
       </c>
       <c r="AM27" t="n">
-        <v>200</v>
+        <v>960</v>
       </c>
       <c r="AN27" t="n">
         <v>260</v>
       </c>
       <c r="AO27" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J28" t="n">
         <v>2.92</v>
@@ -4204,13 +4204,13 @@
         <v>2.52</v>
       </c>
       <c r="O28" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P28" t="n">
         <v>1.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="R28" t="n">
         <v>1.17</v>
@@ -4225,7 +4225,7 @@
         <v>1.72</v>
       </c>
       <c r="V28" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W28" t="n">
         <v>1.55</v>
@@ -4234,10 +4234,10 @@
         <v>7.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4330,7 +4330,7 @@
         <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -4360,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W29" t="n">
         <v>1.27</v>
@@ -4375,7 +4375,7 @@
         <v>28</v>
       </c>
       <c r="AA29" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AB29" t="n">
         <v>1000</v>
@@ -4447,58 +4447,58 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G30" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H30" t="n">
         <v>1.82</v>
       </c>
       <c r="I30" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="R30" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S30" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="V30" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W30" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4516,7 +4516,7 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="n">
         <v>40</v>
@@ -4582,58 +4582,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G31" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I31" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="R31" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S31" t="n">
         <v>3.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="V31" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W31" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X31" t="n">
         <v>12.5</v>
@@ -4642,40 +4642,40 @@
         <v>13.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA31" t="n">
         <v>350</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE31" t="n">
         <v>190</v>
       </c>
       <c r="AF31" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
         <v>200</v>
       </c>
       <c r="AJ31" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="n">
         <v>190</v>
@@ -4684,7 +4684,7 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G32" t="n">
         <v>2.88</v>
@@ -4726,46 +4726,46 @@
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="n">
         <v>3.05</v>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="M32" t="n">
         <v>1.15</v>
       </c>
       <c r="N32" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="O32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P32" t="n">
         <v>1.45</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W32" t="n">
         <v>1.53</v>
@@ -4777,52 +4777,52 @@
         <v>8</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AA32" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>450</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI32" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="n">
         <v>540</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>260</v>
-      </c>
       <c r="AM32" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -4852,103 +4852,103 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G33" t="n">
         <v>5.4</v>
       </c>
-      <c r="G33" t="n">
-        <v>6.4</v>
-      </c>
       <c r="H33" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="I33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.66</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.7</v>
       </c>
       <c r="U33" t="n">
         <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="W33" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X33" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y33" t="n">
         <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD33" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD33" t="n">
-        <v>11</v>
-      </c>
       <c r="AE33" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AF33" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG33" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ33" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="n">
         <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4957,7 +4957,7 @@
         <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="G34" t="n">
         <v>2.6</v>
@@ -4996,7 +4996,7 @@
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="J34" t="n">
         <v>3.1</v>
@@ -5005,82 +5005,82 @@
         <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="O34" t="n">
         <v>1.51</v>
       </c>
       <c r="P34" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="R34" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.56</v>
+        <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.51</v>
+        <v>1.81</v>
       </c>
       <c r="V34" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="W34" t="n">
         <v>1.62</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>980</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG34" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL34" t="n">
         <v>1000</v>
@@ -5122,64 +5122,64 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="G35" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>7.2</v>
+        <v>3.95</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>3.25</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>1.87</v>
+        <v>3.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V35" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W35" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5188,43 +5188,43 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5260,13 +5260,13 @@
         <v>3.35</v>
       </c>
       <c r="G36" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H36" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J36" t="n">
         <v>3.05</v>
@@ -5290,7 +5290,7 @@
         <v>1.65</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R36" t="n">
         <v>1.24</v>
@@ -5302,19 +5302,19 @@
         <v>1.94</v>
       </c>
       <c r="U36" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V36" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W36" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X36" t="n">
         <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
         <v>14.5</v>
@@ -5323,7 +5323,7 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AC36" t="n">
         <v>8.4</v>
@@ -5335,13 +5335,13 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
         <v>17.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5350,16 +5350,16 @@
         <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL36" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>150</v>
       </c>
       <c r="AN36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
         <v>36</v>
@@ -5395,22 +5395,22 @@
         <v>2.06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H37" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I37" t="n">
         <v>4.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
         <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M37" t="n">
         <v>1.1</v>
@@ -5431,7 +5431,7 @@
         <v>1.24</v>
       </c>
       <c r="S37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T37" t="n">
         <v>1.96</v>
@@ -5443,58 +5443,58 @@
         <v>1.28</v>
       </c>
       <c r="W37" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X37" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN37" t="n">
         <v>24</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>34</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5533,31 +5533,31 @@
         <v>2.12</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
         <v>4.3</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
         <v>4.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="O38" t="n">
         <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="Q38" t="n">
         <v>1.6</v>
@@ -5680,37 +5680,37 @@
         <v>3.9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="R39" t="n">
         <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
         <v>1.7</v>
       </c>
       <c r="U39" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W39" t="n">
         <v>1.75</v>
@@ -5797,46 +5797,46 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="H40" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="I40" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>1.64</v>
+        <v>3.3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="R40" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S40" t="n">
-        <v>1.91</v>
+        <v>3.35</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5845,16 +5845,16 @@
         <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="W40" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5866,7 +5866,7 @@
         <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G41" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H41" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="I41" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J41" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
         <v>4.1</v>
@@ -5959,7 +5959,7 @@
         <v>3.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
         <v>1.87</v>
@@ -5968,31 +5968,31 @@
         <v>2.08</v>
       </c>
       <c r="R41" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S41" t="n">
         <v>3.7</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U41" t="n">
         <v>1.89</v>
       </c>
       <c r="V41" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
         <v>22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="I2" t="n">
         <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -730,7 +730,7 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -739,7 +739,7 @@
         <v>42</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.73</v>
       </c>
-      <c r="H3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.49</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL3" t="n">
         <v>32</v>
       </c>
-      <c r="Y3" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>25</v>
-      </c>
       <c r="AM3" t="n">
-        <v>580</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -940,61 +940,61 @@
         <v>4.2</v>
       </c>
       <c r="G4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="I4" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.52</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.44</v>
-      </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="Y4" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>15</v>
@@ -1003,7 +1003,7 @@
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="n">
         <v>11</v>
@@ -1015,13 +1015,13 @@
         <v>16.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
         <v>25</v>
@@ -1030,19 +1030,19 @@
         <v>110</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.1</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
         <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>380</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11</v>
-      </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="G6" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>25</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1231,88 +1231,88 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
         <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
         <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL6" t="n">
         <v>42</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1342,40 +1342,40 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="G7" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="I7" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
         <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1384,22 +1384,22 @@
         <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,10 +1420,10 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.68</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1642,37 +1642,37 @@
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
         <v>2.42</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X9" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1687,7 +1687,7 @@
         <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF9" t="n">
         <v>13</v>
@@ -1702,22 +1702,22 @@
         <v>170</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="G10" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -1765,7 +1765,7 @@
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -1774,85 +1774,85 @@
         <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
         <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
         <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.6</v>
       </c>
       <c r="AD10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
         <v>15</v>
       </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>19.5</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>8.6</v>
       </c>
       <c r="I11" t="n">
-        <v>870</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1963,7 +1963,7 @@
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>7</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>4.2</v>
@@ -2047,28 +2047,28 @@
         <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>1.78</v>
+        <v>2.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>1.03</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2101,7 +2101,7 @@
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
         <v>3.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2305,13 +2305,13 @@
         <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="M14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.79</v>
@@ -2326,7 +2326,7 @@
         <v>1.12</v>
       </c>
       <c r="S14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T14" t="n">
         <v>2.9</v>
@@ -2335,37 +2335,37 @@
         <v>1.47</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X14" t="n">
         <v>6.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
         <v>290</v>
       </c>
       <c r="AB14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
@@ -2383,10 +2383,10 @@
         <v>36</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>540</v>
       </c>
       <c r="AM14" t="n">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="AN14" t="n">
         <v>32</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.82</v>
+        <v>3.55</v>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="I15" t="n">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.31</v>
@@ -2452,70 +2452,70 @@
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
         <v>2.48</v>
       </c>
       <c r="T15" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="W15" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
       </c>
       <c r="Y15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z15" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>19</v>
-      </c>
       <c r="AA15" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>170</v>
@@ -2524,10 +2524,10 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2557,106 +2557,106 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="G16" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="J16" t="n">
         <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W16" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AA16" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
         <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>460</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
         <v>5.4</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="J18" t="n">
         <v>3.15</v>
@@ -2845,16 +2845,16 @@
         <v>3.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M18" t="n">
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P18" t="n">
         <v>1.6</v>
@@ -2872,67 +2872,67 @@
         <v>2.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W18" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB18" t="n">
         <v>9.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
         <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
         <v>48</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G19" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
         <v>1.5</v>
@@ -2986,40 +2986,40 @@
         <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
         <v>100</v>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>23</v>
@@ -3040,13 +3040,13 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3058,7 +3058,7 @@
         <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>7.6</v>
       </c>
       <c r="I20" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J20" t="n">
         <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -3121,7 +3121,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.23</v>
@@ -3130,22 +3130,22 @@
         <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.54</v>
       </c>
       <c r="S20" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T20" t="n">
         <v>1.89</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V20" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
@@ -3178,7 +3178,7 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -3262,28 +3262,28 @@
         <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V21" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X21" t="n">
         <v>980</v>
@@ -3370,16 +3370,16 @@
         <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="I22" t="n">
         <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>3.95</v>
@@ -3388,10 +3388,10 @@
         <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.2</v>
@@ -3403,25 +3403,25 @@
         <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S22" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
         <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V22" t="n">
         <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
         <v>18</v>
@@ -3430,49 +3430,49 @@
         <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
         <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="n">
         <v>13.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -3508,52 +3508,52 @@
         <v>7.8</v>
       </c>
       <c r="H23" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I23" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="J23" t="n">
         <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R23" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="W23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I24" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L24" t="n">
         <v>1.28</v>
@@ -3661,43 +3661,43 @@
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T24" t="n">
         <v>2.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="X24" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3706,34 +3706,34 @@
         <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="G25" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.05</v>
@@ -3796,88 +3796,88 @@
         <v>1.14</v>
       </c>
       <c r="N25" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O25" t="n">
         <v>1.58</v>
       </c>
       <c r="P25" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q25" t="n">
         <v>2.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
         <v>6.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.78</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.85</v>
-      </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC25" t="n">
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ25" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL25" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AM25" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -3907,58 +3907,58 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="K26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M26" t="n">
         <v>1.15</v>
       </c>
       <c r="N26" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O26" t="n">
         <v>1.64</v>
       </c>
       <c r="P26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="R26" t="n">
         <v>1.14</v>
       </c>
       <c r="S26" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="T26" t="n">
         <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X26" t="n">
         <v>7.4</v>
@@ -3982,7 +3982,7 @@
         <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
         <v>17.5</v>
@@ -4000,7 +4000,7 @@
         <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="I27" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
@@ -4060,58 +4060,58 @@
         <v>3.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P27" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q27" t="n">
         <v>2.66</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
         <v>5.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.76</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.74</v>
       </c>
       <c r="W27" t="n">
         <v>1.33</v>
       </c>
       <c r="X27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
         <v>12</v>
@@ -4120,34 +4120,34 @@
         <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>90</v>
+        <v>960</v>
       </c>
       <c r="AK27" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
         <v>370</v>
       </c>
       <c r="AM27" t="n">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="AO27" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G28" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.92</v>
       </c>
-      <c r="K28" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="M28" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N28" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="O28" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="P28" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="R28" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="S28" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T28" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="U28" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="V28" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W28" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X28" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="n">
         <v>15.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
         <v>450</v>
       </c>
       <c r="AJ28" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="AM28" t="n">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AN28" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AO28" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -4315,37 +4315,37 @@
         <v>3.95</v>
       </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="I29" t="n">
         <v>2.16</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
         <v>1.43</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="R29" t="n">
         <v>1.33</v>
@@ -4375,19 +4375,19 @@
         <v>28</v>
       </c>
       <c r="AA29" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
         <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD29" t="n">
         <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
         <v>1000</v>
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H30" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="I30" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
         <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="R30" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S30" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="T30" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W30" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO30" t="n">
         <v>29</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.26</v>
+        <v>2.64</v>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="J31" t="n">
         <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="O31" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="P31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V31" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="W31" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="X31" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA31" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM31" t="n">
         <v>200</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>580</v>
-      </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="G32" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I32" t="n">
         <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="K32" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="L32" t="n">
-        <v>1.66</v>
+        <v>1.76</v>
       </c>
       <c r="M32" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="N32" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="P32" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="R32" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="S32" t="n">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T32" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="U32" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="V32" t="n">
         <v>1.44</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X32" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y32" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Z32" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC32" t="n">
         <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AF32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG32" t="n">
         <v>16</v>
       </c>
-      <c r="AG32" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH32" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL32" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
       <c r="AM32" t="n">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="AN32" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AO32" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -4855,16 +4855,16 @@
         <v>4.7</v>
       </c>
       <c r="G33" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="I33" t="n">
         <v>1.79</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
         <v>4.5</v>
@@ -4876,7 +4876,7 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
@@ -4885,25 +4885,25 @@
         <v>2.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R33" t="n">
         <v>1.54</v>
       </c>
       <c r="S33" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T33" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V33" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W33" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X33" t="n">
         <v>22</v>
@@ -4912,13 +4912,13 @@
         <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC33" t="n">
         <v>10</v>
@@ -4930,22 +4930,22 @@
         <v>18</v>
       </c>
       <c r="AF33" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AG33" t="n">
         <v>21</v>
       </c>
       <c r="AH33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI33" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AL33" t="n">
         <v>300</v>
@@ -4957,7 +4957,7 @@
         <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G34" t="n">
         <v>2.6</v>
@@ -4996,31 +4996,31 @@
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
         <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="O34" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P34" t="n">
         <v>1.55</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R34" t="n">
         <v>1.2</v>
@@ -5032,22 +5032,22 @@
         <v>2.06</v>
       </c>
       <c r="U34" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V34" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="W34" t="n">
         <v>1.62</v>
       </c>
       <c r="X34" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
@@ -5059,10 +5059,10 @@
         <v>7.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="AF34" t="n">
         <v>16</v>
@@ -5122,37 +5122,37 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G35" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q35" t="n">
         <v>2.02</v>
@@ -5161,58 +5161,58 @@
         <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="T35" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.9</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.86</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD35" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
         <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="AK35" t="n">
         <v>70</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I36" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J36" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.54</v>
@@ -5281,40 +5281,40 @@
         <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P36" t="n">
         <v>1.65</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R36" t="n">
         <v>1.24</v>
       </c>
       <c r="S36" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T36" t="n">
         <v>1.94</v>
       </c>
       <c r="U36" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W36" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X36" t="n">
         <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z36" t="n">
         <v>14.5</v>
@@ -5323,10 +5323,10 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD36" t="n">
         <v>980</v>
@@ -5335,10 +5335,10 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
         <v>21</v>
@@ -5347,10 +5347,10 @@
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
         <v>1000</v>
@@ -5359,7 +5359,7 @@
         <v>150</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO36" t="n">
         <v>36</v>
@@ -5392,109 +5392,109 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="G37" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="H37" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L37" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U37" t="n">
         <v>1.87</v>
       </c>
       <c r="V37" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="W37" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC37" t="n">
         <v>8</v>
       </c>
       <c r="AD37" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL37" t="n">
         <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN37" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G38" t="n">
         <v>2.12</v>
@@ -5536,7 +5536,7 @@
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
         <v>3.5</v>
@@ -5545,31 +5545,31 @@
         <v>4.6</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P38" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R38" t="n">
         <v>1.52</v>
       </c>
       <c r="S38" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T38" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U38" t="n">
         <v>2.34</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H39" t="n">
         <v>3.25</v>
       </c>
       <c r="I39" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J39" t="n">
         <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>1.39</v>
@@ -5686,13 +5686,13 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
         <v>1.87</v>
@@ -5704,22 +5704,22 @@
         <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U39" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V39" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
         <v>1000</v>
@@ -5797,46 +5797,46 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="G40" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="H40" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I40" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="J40" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L40" t="n">
         <v>1.45</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R40" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S40" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5845,16 +5845,16 @@
         <v>1.03</v>
       </c>
       <c r="V40" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W40" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5866,7 +5866,7 @@
         <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
         <v>1000</v>
@@ -5932,82 +5932,82 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="G41" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="H41" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="I41" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="J41" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="O41" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="P41" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.08</v>
+        <v>2.68</v>
       </c>
       <c r="R41" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="U41" t="n">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="W41" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="X41" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB41" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF41" t="n">
         <v>48</v>
@@ -6016,28 +6016,28 @@
         <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
       </c>
       <c r="AJ41" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
         <v>160</v>
       </c>
-      <c r="AK41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>110</v>
-      </c>
       <c r="AM41" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Slaven Belupo</t>
+          <t>FC Wil</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.9</v>
+        <v>2.16</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6</v>
+        <v>3.95</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3</v>
+        <v>240</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>2.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>2.56</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>2.42</v>
+        <v>5.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -730,16 +730,16 @@
         <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -766,19 +766,19 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Croatian 2 HNL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ruzomberok</t>
+          <t>Rudes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Podbeskidzie B-B</t>
+          <t>BSK Bijelo Brdo</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="H3" t="n">
+        <v>120</v>
+      </c>
+      <c r="I3" t="n">
+        <v>220</v>
+      </c>
+      <c r="J3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W3" t="n">
+        <v>20</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>4.9</v>
       </c>
-      <c r="I3" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>19</v>
-      </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pogon Grodzisk Mazowiecki</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Widzew Lodz</t>
+          <t>Spartakos Kitiou FC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>1.21</v>
       </c>
       <c r="G4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W4" t="n">
         <v>5</v>
       </c>
-      <c r="H4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>2.48</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Japanese J League 3</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FC Osaka</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Ryukyu</t>
+          <t>FC Helsingor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="H5" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>1.98</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH5" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>22</v>
-      </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
         <v>600</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>2.76</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>2.74</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.85</v>
       </c>
-      <c r="K6" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
-        <v>1.11</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>2.42</v>
+        <v>1.57</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Croatian 2 HNL</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,78 +1328,78 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rudes</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BSK Bijelo Brdo</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="H7" t="n">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="K7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W7" t="n">
         <v>3.3</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,22 +1408,22 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1432,10 +1432,10 @@
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,123 +1463,123 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Ariana FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Spartakos Kitiou FC</t>
+          <t>Angelholms</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.35</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>1.41</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>3.85</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="R8" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,28 +1615,28 @@
         <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
@@ -1645,7 +1645,7 @@
         <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R9" t="n">
         <v>1.58</v>
@@ -1657,13 +1657,13 @@
         <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
         <v>1.22</v>
       </c>
       <c r="W9" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="X9" t="n">
         <v>25</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>11.5</v>
@@ -1696,7 +1696,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
         <v>170</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AO9" t="n">
         <v>120</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ariana FC</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Angelholms</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.12</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>2.18</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="P10" t="n">
-        <v>1.97</v>
+        <v>1.37</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.89</v>
+        <v>3.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>8.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="V10" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
-        <v>15.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="AC10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF10" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15</v>
-      </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>48</v>
       </c>
       <c r="AI10" t="n">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="AJ10" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>Orebro Syrianska</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>Enkopings SK</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.35</v>
+        <v>3.95</v>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>1.93</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>2.04</v>
       </c>
       <c r="J11" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.96</v>
       </c>
       <c r="W11" t="n">
-        <v>3.35</v>
+        <v>1.32</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>530</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO11" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,123 +2003,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>2.6</v>
+        <v>1.52</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.12</v>
+        <v>3.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>2.8</v>
+        <v>2.14</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="W12" t="n">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
         <v>14</v>
       </c>
-      <c r="AD12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>4.9</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Fremad Amager</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Helsingor</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.96</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="M14" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.5</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="S14" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="T14" t="n">
-        <v>2.9</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.47</v>
       </c>
-      <c r="V14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.12</v>
-      </c>
       <c r="X14" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD14" t="n">
         <v>13</v>
       </c>
-      <c r="Z14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>34</v>
-      </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.4</v>
+        <v>18.5</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>540</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>610</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Orebro Syrianska</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Enkopings SK</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.55</v>
+        <v>1.94</v>
       </c>
       <c r="G15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S15" t="n">
         <v>4.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.48</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>2.42</v>
+        <v>1.89</v>
       </c>
       <c r="V15" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.32</v>
+        <v>1.98</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Wexford F.C</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>1.54</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>2.4</v>
       </c>
       <c r="I16" t="n">
-        <v>6.6</v>
+        <v>2.52</v>
       </c>
       <c r="J16" t="n">
-        <v>5.2</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>2.86</v>
+        <v>1.39</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG16" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>460</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO16" t="n">
         <v>22</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Longford</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V18" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.48</v>
+        <v>1.15</v>
       </c>
       <c r="X18" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC18" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA18" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>44</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>2.56</v>
       </c>
       <c r="H19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.1</v>
       </c>
-      <c r="I19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.68</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>2.72</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="W19" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL19" t="n">
         <v>32</v>
       </c>
-      <c r="AK19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>980</v>
-      </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="H20" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN20" t="n">
         <v>4.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3</v>
-      </c>
-      <c r="X20" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>12</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,123 +3218,123 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Wexford F.C</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.82</v>
+        <v>2.24</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2.62</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.69</v>
+        <v>2.14</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="W21" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="X21" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Centro Atletico Fenix</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Tacuarembo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>2.68</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>5.2</v>
+        <v>2.26</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="P22" t="n">
-        <v>2.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.59</v>
+        <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="U22" t="n">
-        <v>2.56</v>
+        <v>1.65</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="X22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z22" t="n">
         <v>22</v>
       </c>
-      <c r="Y22" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>24</v>
-      </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>15</v>
       </c>
-      <c r="AC22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
       <c r="AH22" t="n">
-        <v>14.5</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>48</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Longford</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="H23" t="n">
-        <v>1.49</v>
+        <v>2.26</v>
       </c>
       <c r="I23" t="n">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="L23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.31</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.15</v>
-      </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="AB23" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.23</v>
+        <v>2.8</v>
       </c>
       <c r="G24" t="n">
-        <v>1.25</v>
+        <v>2.86</v>
       </c>
       <c r="H24" t="n">
-        <v>14.5</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S24" t="n">
+        <v>8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB24" t="n">
         <v>7</v>
       </c>
-      <c r="K24" t="n">
-        <v>8</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X24" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC24" t="n">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>180</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.199999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.6</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.1</v>
+        <v>75</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.24</v>
+        <v>3.95</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>4.6</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>1.95</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>2.16</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="O25" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.52</v>
+        <v>1.84</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S25" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.31</v>
+        <v>1.86</v>
       </c>
       <c r="W25" t="n">
-        <v>1.78</v>
+        <v>1.27</v>
       </c>
       <c r="X25" t="n">
-        <v>8.199999999999999</v>
+        <v>25</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Z25" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB25" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="AM25" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Centro Atletico Fenix</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tacuarembo</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.62</v>
+        <v>5.7</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>1.63</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>1.69</v>
       </c>
       <c r="J26" t="n">
-        <v>2.72</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>2.26</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>1.41</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.94</v>
+        <v>1.78</v>
       </c>
       <c r="R26" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>6.4</v>
+        <v>2.96</v>
       </c>
       <c r="T26" t="n">
-        <v>2.22</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="V26" t="n">
-        <v>1.38</v>
+        <v>2.44</v>
       </c>
       <c r="W26" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="X26" t="n">
-        <v>7.4</v>
+        <v>19.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE26" t="n">
         <v>17</v>
       </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.9</v>
+        <v>2.74</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>2.82</v>
       </c>
       <c r="H27" t="n">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.2</v>
       </c>
-      <c r="K27" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="O27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.54</v>
       </c>
-      <c r="P27" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.33</v>
-      </c>
       <c r="X27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="n">
         <v>8.4</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AC27" t="n">
         <v>7.2</v>
       </c>
-      <c r="Z27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
         <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AJ27" t="n">
-        <v>960</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="n">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="AN27" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AO27" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G28" t="n">
         <v>2.84</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K28" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="L28" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="M28" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="O28" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="P28" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S28" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U28" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="V28" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W28" t="n">
         <v>1.54</v>
       </c>
       <c r="X28" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
       </c>
       <c r="Z28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AB28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC28" t="n">
         <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF28" t="n">
         <v>15.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="AJ28" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AK28" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL28" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM28" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.95</v>
       </c>
-      <c r="G29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V29" t="n">
         <v>2.16</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.87</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X29" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>900</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,114 +4433,114 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>2.52</v>
       </c>
       <c r="G30" t="n">
-        <v>5.8</v>
+        <v>2.68</v>
       </c>
       <c r="H30" t="n">
-        <v>1.76</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>1.84</v>
+        <v>3.35</v>
       </c>
       <c r="J30" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>2.72</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="P30" t="n">
-        <v>2.1</v>
+        <v>1.56</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.79</v>
+        <v>2.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>2.94</v>
+        <v>5.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="U30" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
-        <v>2.16</v>
+        <v>1.42</v>
       </c>
       <c r="W30" t="n">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>900</v>
       </c>
-      <c r="AB30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL30" t="n">
         <v>1000</v>
@@ -4552,13 +4552,13 @@
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Portland Hearts of Pine</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.64</v>
+        <v>1.88</v>
       </c>
       <c r="G31" t="n">
-        <v>2.68</v>
+        <v>2.08</v>
       </c>
       <c r="H31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
         <v>3.25</v>
       </c>
-      <c r="I31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.58</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S31" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="U31" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="V31" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="W31" t="n">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="X31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC31" t="n">
         <v>8.6</v>
       </c>
-      <c r="Y31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK31" t="n">
         <v>24</v>
       </c>
-      <c r="AI31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>40</v>
-      </c>
       <c r="AL31" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="H32" t="n">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="I32" t="n">
-        <v>3.25</v>
+        <v>2.56</v>
       </c>
       <c r="J32" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="M32" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.86</v>
       </c>
-      <c r="P32" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S32" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.56</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="W32" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="X32" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="Z32" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE32" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AF32" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO32" t="n">
         <v>34</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>380</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>200</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>5.3</v>
+        <v>2.14</v>
       </c>
       <c r="H33" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1.79</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="P33" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="V33" t="n">
-        <v>2.26</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.23</v>
+        <v>1.88</v>
       </c>
       <c r="X33" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG33" t="n">
         <v>12</v>
       </c>
-      <c r="Z33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG33" t="n">
+      <c r="AH33" t="n">
         <v>21</v>
       </c>
-      <c r="AH33" t="n">
-        <v>18</v>
-      </c>
       <c r="AI33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AK33" t="n">
-        <v>380</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="n">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO33" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Charlotte Independence</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>AV Alta FC</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.16</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>2.62</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="P34" t="n">
-        <v>1.55</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.52</v>
+        <v>1.67</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>2.66</v>
       </c>
       <c r="T34" t="n">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="U34" t="n">
-        <v>1.82</v>
+        <v>2.26</v>
       </c>
       <c r="V34" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="W34" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="X34" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AF34" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>450</v>
+        <v>55</v>
       </c>
       <c r="AJ34" t="n">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="AK34" t="n">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,123 +5108,123 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>One Knoxville SC</t>
+          <t>North Carolina FC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Portland Hearts of Pine</t>
+          <t>Phoenix Rising FC</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.86</v>
+        <v>2.24</v>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L35" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="S35" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="U35" t="n">
-        <v>1.89</v>
+        <v>2.24</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="W35" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z35" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,111 +5243,111 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="G36" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.5</v>
       </c>
-      <c r="H36" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K36" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="L36" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S36" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T36" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="U36" t="n">
         <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="W36" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
         <v>1000</v>
@@ -5356,19 +5356,19 @@
         <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,666 +5378,126 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="G37" t="n">
-        <v>2.04</v>
+        <v>6.6</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>1.77</v>
       </c>
       <c r="I37" t="n">
-        <v>5.1</v>
+        <v>1.83</v>
       </c>
       <c r="J37" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K37" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N37" t="n">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="P37" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="S37" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="T37" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>1.24</v>
+        <v>2.2</v>
       </c>
       <c r="W37" t="n">
-        <v>1.96</v>
+        <v>1.18</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Z37" t="n">
-        <v>38</v>
+        <v>9.6</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.8</v>
+        <v>17.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AH37" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM37" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="AN37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>US USL League One</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Charlotte Independence</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>AV Alta FC</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>US United Soccer League</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>North Carolina FC</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Phoenix Rising FC</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U39" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>Fremad Amager</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Wil</t>
+          <t>FC Helsingor</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>2.98</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="K2" t="n">
-        <v>240</v>
+        <v>2.74</v>
       </c>
       <c r="L2" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.45</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -736,49 +736,49 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>4.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>6.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>6.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>7.8</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Croatian 2 HNL</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rudes</t>
+          <t>Vendsyssel FF</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BSK Bijelo Brdo</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>1.05</v>
+        <v>65</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>1.11</v>
       </c>
       <c r="I3" t="n">
-        <v>220</v>
+        <v>1.13</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,29 +832,29 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>2.08</v>
       </c>
       <c r="T3" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.01</v>
       </c>
-      <c r="W3" t="n">
-        <v>20</v>
-      </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
@@ -862,10 +862,10 @@
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,46 +874,46 @@
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Danish 2nd Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,72 +923,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Spartakos Kitiou FC</t>
+          <t>Skive</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.01</v>
       </c>
-      <c r="N4" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.05</v>
-      </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>5.8</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.48</v>
+        <v>1.51</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fremad Amager</t>
+          <t>Ariana FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Helsingor</t>
+          <t>Angelholms</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>2.02</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1.16</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>1.17</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>8.4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>6.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.98</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>200</v>
+        <v>3.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>200</v>
+        <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN5" t="n">
         <v>55</v>
       </c>
-      <c r="AM5" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>13</v>
-      </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,73 +1198,73 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vendsyssel FF</t>
+          <t>Husqvarna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Skovde</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.74</v>
+        <v>2.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.43</v>
+        <v>4.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="W6" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,52 +1273,52 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>4.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>60</v>
+        <v>3.9</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>990</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Danish 2nd Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Skive</t>
+          <t>San Martin de San Juan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.4</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>1.43</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>2.44</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>1.52</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>2.82</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>1.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>7.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.59</v>
+        <v>1.03</v>
       </c>
       <c r="S7" t="n">
-        <v>2.5</v>
+        <v>27</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>1.23</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="W7" t="n">
-        <v>3.3</v>
+        <v>1.73</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>4.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.6</v>
+        <v>140</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ariana FC</t>
+          <t>Orebro Syrianska</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Angelholms</t>
+          <t>Enkopings SK</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>1.34</v>
       </c>
       <c r="I8" t="n">
-        <v>3.85</v>
+        <v>1.37</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.89</v>
+        <v>1.64</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.36</v>
+        <v>3.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.08</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA8" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
         <v>44</v>
       </c>
-      <c r="AA8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>210</v>
+      </c>
+      <c r="AO8" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Husqvarna</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Skovde</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.67</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.79</v>
-      </c>
       <c r="H9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.7</v>
       </c>
-      <c r="I9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="S9" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.42</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.28</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13</v>
-      </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>San Martin de San Juan</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.89</v>
+        <v>2.9</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
         <v>6.8</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="AD10" t="n">
         <v>13</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AE10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>48</v>
       </c>
-      <c r="AA10" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>270</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22</v>
-      </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>470</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Orebro Syrianska</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enkopings SK</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.95</v>
+        <v>1.55</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>1.61</v>
       </c>
       <c r="H11" t="n">
-        <v>1.93</v>
+        <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.04</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="P11" t="n">
-        <v>2.22</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>1.96</v>
+        <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>1.32</v>
+        <v>2.62</v>
       </c>
       <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>960</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>960</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
         <v>21</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AL11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN11" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>530</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>600</v>
-      </c>
       <c r="AO11" t="n">
-        <v>11.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="G12" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="S12" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="W12" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="X12" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AE12" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>470</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>10</v>
       </c>
-      <c r="AH12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Longford</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Cobh Ramblers</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Bray Wanderers</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.42</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="V14" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="n">
         <v>10</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>46</v>
-      </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Irish Division 1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Kerry FC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Wexford F.C</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.94</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.02</v>
+        <v>3.05</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>2.52</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>2.58</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="W15" t="n">
-        <v>1.98</v>
+        <v>1.48</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kerry FC</t>
+          <t>UCD</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wexford F.C</t>
+          <t>Athlone Town</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>1.46</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.52</v>
+        <v>8.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="X16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
         <v>32</v>
       </c>
-      <c r="Y16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>12</v>
-      </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="n">
-        <v>36</v>
+        <v>8.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AI16" t="n">
         <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>150</v>
+        <v>12.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>7.2</v>
       </c>
       <c r="AO16" t="n">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,118 +2683,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>UCD</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Athlone Town</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>9.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S17" t="n">
         <v>4.3</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB17" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
         <v>27</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AK17" t="n">
         <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.2</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,117 +2813,117 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Longford</t>
+          <t>Centro Atletico Fenix</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Tacuarembo</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC18" t="n">
         <v>7.4</v>
       </c>
-      <c r="G18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X18" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AD18" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2932,13 +2932,13 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Irish Premier Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bray Wanderers</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="O19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.22</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>5.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.56</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="X19" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AA19" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Irish Division 1</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>3.95</v>
       </c>
       <c r="G20" t="n">
-        <v>1.31</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>2.32</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>2.38</v>
       </c>
       <c r="J20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S20" t="n">
         <v>6.4</v>
       </c>
-      <c r="K20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.5</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
-        <v>3.15</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>29</v>
+        <v>7.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>46</v>
+        <v>6.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.6</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>13.5</v>
+        <v>85</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>370</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.7</v>
+        <v>600</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Irish Premier Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N21" t="n">
         <v>2.28</v>
       </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.13</v>
       </c>
-      <c r="N21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.2</v>
-      </c>
       <c r="S21" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="T21" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W21" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF21" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AL21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AN21" t="n">
         <v>65</v>
       </c>
-      <c r="AM21" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>30</v>
-      </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Uruguayan Segunda Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,117 +3353,117 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Centro Atletico Fenix</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tacuarembo</t>
+          <t>Cucuta Deportivo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>2.04</v>
       </c>
       <c r="I22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.55</v>
       </c>
-      <c r="J22" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S22" t="n">
-        <v>6.2</v>
-      </c>
       <c r="T22" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="U22" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="W22" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>25</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.8</v>
+        <v>30</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="AH22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3472,13 +3472,13 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="G23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
         <v>4.3</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.5</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5</v>
+        <v>2.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.98</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.17</v>
       </c>
-      <c r="S23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.31</v>
-      </c>
       <c r="X23" t="n">
-        <v>8.199999999999999</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI23" t="n">
         <v>34</v>
       </c>
-      <c r="AF23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="AK23" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AL23" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="M24" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="O24" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="P24" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="R24" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="S24" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="T24" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="U24" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="X24" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM24" t="n">
         <v>450</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AN24" t="n">
         <v>55</v>
       </c>
-      <c r="AK24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>75</v>
-      </c>
       <c r="AO24" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cucuta Deportivo</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.95</v>
+        <v>2.8</v>
       </c>
       <c r="G25" t="n">
-        <v>4.6</v>
+        <v>2.88</v>
       </c>
       <c r="H25" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>2.96</v>
       </c>
       <c r="L25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S25" t="n">
+        <v>8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.43</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.86</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="X25" t="n">
-        <v>25</v>
+        <v>6.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN25" t="n">
         <v>70</v>
       </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>350</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Olimpia</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="G26" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
         <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="R26" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="S26" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="T26" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>2.44</v>
+        <v>2.18</v>
       </c>
       <c r="W26" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="X26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AK26" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.3</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L27" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="M27" t="n">
         <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="O27" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
         <v>5.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W27" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>42</v>
       </c>
       <c r="AA27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC27" t="n">
         <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AF27" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AJ27" t="n">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="AM27" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>One Knoxville SC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Portland Hearts of Pine</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.78</v>
+        <v>1.87</v>
       </c>
       <c r="G28" t="n">
-        <v>2.84</v>
+        <v>2.04</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
         <v>3.3</v>
       </c>
-      <c r="J28" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.32</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.72</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>7.4</v>
+        <v>3.65</v>
       </c>
       <c r="T28" t="n">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="U28" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="W28" t="n">
-        <v>1.54</v>
+        <v>1.96</v>
       </c>
       <c r="X28" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
         <v>16</v>
       </c>
-      <c r="AE28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>65</v>
-      </c>
       <c r="AO28" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>4.9</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>1.81</v>
+        <v>2.46</v>
       </c>
       <c r="I29" t="n">
-        <v>1.86</v>
+        <v>2.56</v>
       </c>
       <c r="J29" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="P29" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
-        <v>2.68</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="U29" t="n">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="V29" t="n">
-        <v>2.16</v>
+        <v>1.64</v>
       </c>
       <c r="W29" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH29" t="n">
         <v>21</v>
       </c>
-      <c r="Y29" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>18</v>
-      </c>
       <c r="AI29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>65</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>120</v>
-      </c>
       <c r="AK29" t="n">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>9.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,123 +4433,123 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>General Caballero</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="G30" t="n">
-        <v>2.68</v>
+        <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="J30" t="n">
         <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="M30" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="P30" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="V30" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="X30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>48</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK30" t="n">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>One Knoxville SC</t>
+          <t>Charlotte Independence</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Portland Hearts of Pine</t>
+          <t>AV Alta FC</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.88</v>
       </c>
-      <c r="G31" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.93</v>
-      </c>
       <c r="X31" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF31" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK31" t="n">
         <v>21</v>
       </c>
-      <c r="AI31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ31" t="n">
+      <c r="AL31" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO31" t="n">
         <v>44</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>US United Soccer League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>North Carolina FC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Phoenix Rising FC</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.25</v>
+        <v>2.26</v>
       </c>
       <c r="G32" t="n">
-        <v>3.45</v>
+        <v>2.36</v>
       </c>
       <c r="H32" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.56</v>
+        <v>3.4</v>
       </c>
       <c r="J32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.2</v>
       </c>
-      <c r="K32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="U32" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="V32" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="W32" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD32" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,123 +4838,123 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>General Caballero</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.14</v>
+        <v>5.4</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>1.83</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>1.93</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="T33" t="n">
         <v>1.92</v>
       </c>
       <c r="U33" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>2.06</v>
       </c>
       <c r="W33" t="n">
-        <v>1.88</v>
+        <v>1.24</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z33" t="n">
         <v>13</v>
       </c>
-      <c r="Z33" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,531 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Charlotte Independence</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AV Alta FC</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.92</v>
+        <v>5.9</v>
       </c>
       <c r="G34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V34" t="n">
         <v>2.16</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W34" t="n">
-        <v>1.86</v>
+        <v>1.19</v>
       </c>
       <c r="X34" t="n">
-        <v>24</v>
+        <v>8.6</v>
       </c>
       <c r="Y34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>270</v>
+      </c>
+      <c r="AO34" t="n">
         <v>21</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>US United Soccer League</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>North Carolina FC</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Phoenix Rising FC</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Real Cartagena</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G36" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>290</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
